--- a/xforms/xlsforms/in_migration.xlsx
+++ b/xforms/xlsforms/in_migration.xlsx
@@ -1,22 +1,22 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="5" rupBuild="4505"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="25605" yWindow="-195" windowWidth="20730" windowHeight="11760" tabRatio="500"/>
+    <workbookView xWindow="10200" yWindow="-15" windowWidth="10230" windowHeight="7905" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="survey" sheetId="1" r:id="rId1"/>
     <sheet name="choices" sheetId="2" r:id="rId2"/>
     <sheet name="settings" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="125725"/>
+  <calcPr calcId="124519"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="234" uniqueCount="159">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="357" uniqueCount="235">
   <si>
     <t>type</t>
   </si>
@@ -267,9 +267,6 @@
     <t>Tarehe Imekadiliwa</t>
   </si>
   <si>
-    <t>MARITAL_CHANGE</t>
-  </si>
-  <si>
     <t>EDUCATION/SCHOOL</t>
   </si>
   <si>
@@ -375,15 +372,9 @@
     <t>default_language</t>
   </si>
   <si>
-    <t>English</t>
-  </si>
-  <si>
     <t>in_migration</t>
   </si>
   <si>
-    <t>In migration registration</t>
-  </si>
-  <si>
     <t>. &lt; today()</t>
   </si>
   <si>
@@ -420,45 +411,12 @@
     <t>Came with relative(s)</t>
   </si>
   <si>
-    <t>CAME_WITH_RELATIVES</t>
-  </si>
-  <si>
     <t>Moved to new house</t>
   </si>
   <si>
-    <t>NEW_HOUSE</t>
-  </si>
-  <si>
-    <t>select_one comingfrom</t>
-  </si>
-  <si>
     <t>${migrationType} = 'INTERNAL_INMIGRATION'</t>
   </si>
   <si>
-    <t>comingfrom</t>
-  </si>
-  <si>
-    <t>Suba district</t>
-  </si>
-  <si>
-    <t>SubaDistrict</t>
-  </si>
-  <si>
-    <t>ElsewhereNyanzaProvince</t>
-  </si>
-  <si>
-    <t>OutsideKenya</t>
-  </si>
-  <si>
-    <t>Other</t>
-  </si>
-  <si>
-    <t>Elsewhere Nyanza province</t>
-  </si>
-  <si>
-    <t>Outside Kenya</t>
-  </si>
-  <si>
     <t>Place member Moved FROM:</t>
   </si>
   <si>
@@ -493,13 +451,283 @@
   </si>
   <si>
     <t>processed</t>
+  </si>
+  <si>
+    <t>Portuguese</t>
+  </si>
+  <si>
+    <t>instance_name</t>
+  </si>
+  <si>
+    <t>concat("Imigracao_",${permId})</t>
+  </si>
+  <si>
+    <t>Registo de Imigração</t>
+  </si>
+  <si>
+    <t>label::Portuguese</t>
+  </si>
+  <si>
+    <t>permId</t>
+  </si>
+  <si>
+    <t>Perm ID</t>
+  </si>
+  <si>
+    <t>Id da Visita</t>
+  </si>
+  <si>
+    <t>Código do Inquiridor</t>
+  </si>
+  <si>
+    <t>ExtId da Localização</t>
+  </si>
+  <si>
+    <t>ExtId do individuo</t>
+  </si>
+  <si>
+    <t>ExtId da mãe</t>
+  </si>
+  <si>
+    <t>ExtId do Pai</t>
+  </si>
+  <si>
+    <t>Nome</t>
+  </si>
+  <si>
+    <t>Sexo</t>
+  </si>
+  <si>
+    <t>Data de nascimento</t>
+  </si>
+  <si>
+    <t>Data parcial</t>
+  </si>
+  <si>
+    <t>1=0 and ${migrationType} = 'EXTERNAL_INMIGRATION'</t>
+  </si>
+  <si>
+    <t>Nome do meio</t>
+  </si>
+  <si>
+    <t>Apelido</t>
+  </si>
+  <si>
+    <t>Data da imigração</t>
+  </si>
+  <si>
+    <t>A data da imigração não pode ser menor ou igual a data de nascimento. Por favor volte e corrija.</t>
+  </si>
+  <si>
+    <t>Agregado de Origem</t>
+  </si>
+  <si>
+    <t>Razão da Imigração</t>
+  </si>
+  <si>
+    <t>Mudança do estado civil</t>
+  </si>
+  <si>
+    <t>Introduza a razão</t>
+  </si>
+  <si>
+    <t>O individuo em questão pretende permacecer aqui por longo periodo ou curto periodo?</t>
+  </si>
+  <si>
+    <t>Nome do agregado de origem</t>
+  </si>
+  <si>
+    <t>Masculino</t>
+  </si>
+  <si>
+    <t>Femenino</t>
+  </si>
+  <si>
+    <t>Exato</t>
+  </si>
+  <si>
+    <t>Aproximado</t>
+  </si>
+  <si>
+    <t>Longo periodo (mais do que 1 ano)</t>
+  </si>
+  <si>
+    <t>Curto periodo (até 1 ano)</t>
+  </si>
+  <si>
+    <t>Não sabe</t>
+  </si>
+  <si>
+    <t>EMPREGO</t>
+  </si>
+  <si>
+    <t>Emprego</t>
+  </si>
+  <si>
+    <t>CASAMENTO</t>
+  </si>
+  <si>
+    <t>Casamento</t>
+  </si>
+  <si>
+    <t>DIVORCIO</t>
+  </si>
+  <si>
+    <t>Divorcio</t>
+  </si>
+  <si>
+    <t>SEPARACAO</t>
+  </si>
+  <si>
+    <t>Separação</t>
+  </si>
+  <si>
+    <t>SAUDE</t>
+  </si>
+  <si>
+    <t>Saúde</t>
+  </si>
+  <si>
+    <t>FAMILIA</t>
+  </si>
+  <si>
+    <t>Familia</t>
+  </si>
+  <si>
+    <t>MAIORIDADE_INDEPENDENCIA</t>
+  </si>
+  <si>
+    <t>Maioridade/Independência</t>
+  </si>
+  <si>
+    <t>PERCA_DE_PARENTES</t>
+  </si>
+  <si>
+    <t>Perca de parentes/responsaveis</t>
+  </si>
+  <si>
+    <t>EDUCACAO</t>
+  </si>
+  <si>
+    <t>Educação</t>
+  </si>
+  <si>
+    <t>SITUACAO_ECONOMICA</t>
+  </si>
+  <si>
+    <t>Situação Economica</t>
+  </si>
+  <si>
+    <t>CUSTO_DE_ALUGUER_DA_CASA</t>
+  </si>
+  <si>
+    <t>Custo de Aluguer da casa</t>
+  </si>
+  <si>
+    <t>ACOMPANHANTES_DOS_PROGENITORES</t>
+  </si>
+  <si>
+    <t>Acompanhantes dos progenitores/responsaveis</t>
+  </si>
+  <si>
+    <t>OUTRO</t>
+  </si>
+  <si>
+    <t>Outro</t>
+  </si>
+  <si>
+    <t>NAO_SABE</t>
+  </si>
+  <si>
+    <t>Divórcio</t>
+  </si>
+  <si>
+    <t>Tornou-se Viuvo/a</t>
+  </si>
+  <si>
+    <t>Reconciliação</t>
+  </si>
+  <si>
+    <t>Nenhuma das opções</t>
+  </si>
+  <si>
+    <t>locationName</t>
+  </si>
+  <si>
+    <t>Agregado de destino</t>
+  </si>
+  <si>
+    <t>Pais de Origem</t>
+  </si>
+  <si>
+    <t>Nome do Pais de Origem</t>
+  </si>
+  <si>
+    <t>Provincia de Origem</t>
+  </si>
+  <si>
+    <t>Distrito de Origem</t>
+  </si>
+  <si>
+    <t>Posto Administrativo de Origem</t>
+  </si>
+  <si>
+    <t>Localidade  de Origem</t>
+  </si>
+  <si>
+    <t>isMozambique</t>
+  </si>
+  <si>
+    <t>countryName</t>
+  </si>
+  <si>
+    <t>province</t>
+  </si>
+  <si>
+    <t>district</t>
+  </si>
+  <si>
+    <t>adminPost</t>
+  </si>
+  <si>
+    <t>locality</t>
+  </si>
+  <si>
+    <t>select_one countries</t>
+  </si>
+  <si>
+    <t>countries</t>
+  </si>
+  <si>
+    <t>MOZ</t>
+  </si>
+  <si>
+    <t>Moçambique</t>
+  </si>
+  <si>
+    <t>Outro país</t>
+  </si>
+  <si>
+    <t>${isMozambique} = 'OTHER' and ${migrationType} = 'EXTERNAL_INMIGRATION'</t>
+  </si>
+  <si>
+    <t>${isMozambique} = 'MOZ' and ${migrationType} = 'EXTERNAL_INMIGRATION'</t>
+  </si>
+  <si>
+    <t>ExtId do Agregado de Origem</t>
+  </si>
+  <si>
+    <t>originHouseNo</t>
+  </si>
+  <si>
+    <t>Agregado de origem</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="7" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <fonts count="7">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -1659,33 +1887,34 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:Q86"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:R95"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="101" zoomScaleNormal="101" zoomScalePageLayoutView="125" workbookViewId="0">
-      <pane xSplit="2" ySplit="1" topLeftCell="H10" activePane="bottomRight" state="frozen"/>
+    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" zoomScalePageLayoutView="125" workbookViewId="0">
+      <pane xSplit="2" ySplit="1" topLeftCell="M18" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="L30" sqref="L30"/>
+      <selection pane="bottomRight" activeCell="B25" sqref="B25"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.875" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="10.875" defaultRowHeight="12"/>
   <cols>
     <col min="1" max="1" width="19.625" style="5" customWidth="1"/>
     <col min="2" max="2" width="18.5" style="5" customWidth="1"/>
-    <col min="3" max="3" width="35.75" style="5" customWidth="1"/>
-    <col min="4" max="4" width="19" style="5" customWidth="1"/>
-    <col min="5" max="5" width="18" style="5" customWidth="1"/>
-    <col min="6" max="6" width="21.5" style="5" customWidth="1"/>
-    <col min="7" max="7" width="22.875" style="5" customWidth="1"/>
-    <col min="8" max="8" width="25" style="5" customWidth="1"/>
-    <col min="9" max="10" width="10.875" style="5"/>
-    <col min="11" max="11" width="19.125" style="5" customWidth="1"/>
-    <col min="12" max="12" width="34.125" style="5" customWidth="1"/>
-    <col min="13" max="16384" width="10.875" style="5"/>
+    <col min="3" max="3" width="36.625" style="5" customWidth="1"/>
+    <col min="4" max="4" width="26.375" style="5" customWidth="1"/>
+    <col min="5" max="5" width="35.75" style="5" customWidth="1"/>
+    <col min="6" max="6" width="18" style="5" customWidth="1"/>
+    <col min="7" max="7" width="21.5" style="5" customWidth="1"/>
+    <col min="8" max="8" width="22.875" style="5" customWidth="1"/>
+    <col min="9" max="9" width="25" style="5" customWidth="1"/>
+    <col min="10" max="11" width="10.875" style="5"/>
+    <col min="12" max="12" width="19.125" style="5" customWidth="1"/>
+    <col min="13" max="13" width="59" style="5" customWidth="1"/>
+    <col min="14" max="16384" width="10.875" style="5"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:18">
       <c r="A1" s="4" t="s">
         <v>0</v>
       </c>
@@ -1693,60 +1922,63 @@
         <v>1</v>
       </c>
       <c r="C1" s="6" t="s">
-        <v>18</v>
+        <v>149</v>
       </c>
       <c r="D1" s="6" t="s">
         <v>17</v>
       </c>
-      <c r="E1" s="4" t="s">
+      <c r="E1" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="F1" s="4" t="s">
         <v>19</v>
       </c>
-      <c r="F1" s="4" t="s">
+      <c r="G1" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="G1" s="4" t="s">
+      <c r="H1" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="H1" s="4" t="s">
+      <c r="I1" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="I1" s="4" t="s">
+      <c r="J1" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="J1" s="4" t="s">
+      <c r="K1" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="K1" s="4" t="s">
+      <c r="L1" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="L1" s="4" t="s">
+      <c r="M1" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="M1" s="4" t="s">
+      <c r="N1" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="N1" s="4" t="s">
+      <c r="O1" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="O1" s="4" t="s">
+      <c r="P1" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="P1" s="5" t="s">
+      <c r="Q1" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="Q1" s="5" t="s">
+      <c r="R1" s="5" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="2" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:18">
       <c r="A2" s="4" t="s">
         <v>14</v>
       </c>
       <c r="B2" s="5" t="s">
         <v>14</v>
       </c>
+      <c r="C2" s="4"/>
       <c r="D2" s="4"/>
-      <c r="E2" s="4"/>
       <c r="F2" s="4"/>
       <c r="G2" s="4"/>
       <c r="H2" s="4"/>
@@ -1757,16 +1989,17 @@
       <c r="M2" s="4"/>
       <c r="N2" s="4"/>
       <c r="O2" s="4"/>
-    </row>
-    <row r="3" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="P2" s="4"/>
+    </row>
+    <row r="3" spans="1:18">
       <c r="A3" s="4" t="s">
         <v>15</v>
       </c>
       <c r="B3" s="5" t="s">
         <v>15</v>
       </c>
+      <c r="C3" s="4"/>
       <c r="D3" s="4"/>
-      <c r="E3" s="4"/>
       <c r="F3" s="4"/>
       <c r="G3" s="4"/>
       <c r="H3" s="4"/>
@@ -1777,16 +2010,17 @@
       <c r="M3" s="4"/>
       <c r="N3" s="4"/>
       <c r="O3" s="4"/>
-    </row>
-    <row r="4" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="P3" s="4"/>
+    </row>
+    <row r="4" spans="1:18">
       <c r="A4" s="4" t="s">
         <v>16</v>
       </c>
       <c r="B4" s="5" t="s">
         <v>16</v>
       </c>
+      <c r="C4" s="4"/>
       <c r="D4" s="4"/>
-      <c r="E4" s="4"/>
       <c r="F4" s="4"/>
       <c r="G4" s="4"/>
       <c r="H4" s="4"/>
@@ -1797,8 +2031,9 @@
       <c r="M4" s="4"/>
       <c r="N4" s="4"/>
       <c r="O4" s="4"/>
-    </row>
-    <row r="5" spans="1:17" s="16" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="P4" s="4"/>
+    </row>
+    <row r="5" spans="1:18" s="16" customFormat="1" ht="15" customHeight="1">
       <c r="A5" s="17" t="s">
         <v>21</v>
       </c>
@@ -1806,615 +2041,904 @@
         <v>22</v>
       </c>
       <c r="C5" s="16" t="s">
-        <v>114</v>
+        <v>22</v>
       </c>
       <c r="D5" s="16" t="s">
         <v>22</v>
       </c>
-      <c r="E5" s="17"/>
+      <c r="E5" s="16" t="s">
+        <v>113</v>
+      </c>
       <c r="F5" s="17"/>
       <c r="G5" s="17"/>
       <c r="H5" s="17"/>
-      <c r="I5" s="17" t="b">
+      <c r="I5" s="17"/>
+      <c r="J5" s="17" t="b">
         <v>1</v>
       </c>
-      <c r="J5" s="17"/>
       <c r="K5" s="17"/>
       <c r="L5" s="17"/>
-      <c r="M5" s="5" t="b">
+      <c r="M5" s="17"/>
+      <c r="N5" s="5" t="b">
         <v>1</v>
       </c>
-      <c r="N5" s="17"/>
       <c r="O5" s="17"/>
-    </row>
-    <row r="6" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="P5" s="17"/>
+    </row>
+    <row r="6" spans="1:18" ht="15" customHeight="1">
       <c r="A6" s="5" t="s">
         <v>21</v>
       </c>
       <c r="B6" s="5" t="s">
-        <v>23</v>
-      </c>
-      <c r="C6" s="5" t="s">
-        <v>24</v>
+        <v>26</v>
+      </c>
+      <c r="C6" s="9" t="s">
+        <v>152</v>
       </c>
       <c r="D6" s="5" t="s">
-        <v>25</v>
-      </c>
-      <c r="I6" s="4" t="b">
+        <v>29</v>
+      </c>
+      <c r="E6" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="J6" s="4" t="b">
         <v>1</v>
       </c>
-      <c r="M6" s="5" t="b">
+      <c r="N6" s="5" t="b">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:18" ht="17.25" customHeight="1">
       <c r="A7" s="5" t="s">
         <v>21</v>
       </c>
       <c r="B7" s="5" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="C7" s="5" t="s">
-        <v>28</v>
+        <v>153</v>
       </c>
       <c r="D7" s="5" t="s">
-        <v>29</v>
-      </c>
-      <c r="I7" s="4" t="b">
+        <v>31</v>
+      </c>
+      <c r="E7" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="J7" s="4" t="b">
         <v>1</v>
       </c>
-      <c r="M7" s="5" t="b">
+      <c r="N7" s="5" t="b">
         <v>1</v>
       </c>
     </row>
-    <row r="8" spans="1:17" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:18" ht="15" customHeight="1">
       <c r="A8" s="5" t="s">
         <v>21</v>
       </c>
       <c r="B8" s="5" t="s">
-        <v>27</v>
+        <v>23</v>
       </c>
       <c r="C8" s="5" t="s">
-        <v>30</v>
+        <v>154</v>
       </c>
       <c r="D8" s="5" t="s">
-        <v>31</v>
-      </c>
-      <c r="I8" s="4" t="b">
+        <v>25</v>
+      </c>
+      <c r="E8" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="J8" s="4" t="b">
         <v>1</v>
       </c>
-      <c r="M8" s="5" t="b">
+      <c r="N8" s="5" t="b">
         <v>1</v>
       </c>
     </row>
-    <row r="9" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A9" s="2" t="s">
-        <v>110</v>
+    <row r="9" spans="1:18" ht="15" customHeight="1">
+      <c r="A9" s="5" t="s">
+        <v>21</v>
       </c>
       <c r="B9" s="5" t="s">
-        <v>123</v>
+        <v>211</v>
       </c>
       <c r="C9" s="5" t="s">
-        <v>115</v>
-      </c>
-      <c r="I9" s="4"/>
-    </row>
-    <row r="10" spans="1:17" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A10" s="5" t="s">
-        <v>21</v>
+        <v>212</v>
+      </c>
+      <c r="D9" s="5" t="s">
+        <v>212</v>
+      </c>
+      <c r="E9" s="5" t="s">
+        <v>212</v>
+      </c>
+      <c r="J9" s="4"/>
+      <c r="N9" s="5" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10" spans="1:18">
+      <c r="A10" s="2" t="s">
+        <v>109</v>
       </c>
       <c r="B10" s="5" t="s">
-        <v>32</v>
-      </c>
-      <c r="C10" s="5" t="s">
-        <v>33</v>
-      </c>
-      <c r="D10" s="5" t="s">
-        <v>34</v>
-      </c>
-      <c r="I10" s="4" t="b">
-        <v>1</v>
-      </c>
-      <c r="M10" s="5" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="11" spans="1:17" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+        <v>120</v>
+      </c>
+      <c r="E10" s="5" t="s">
+        <v>114</v>
+      </c>
+      <c r="J10" s="4"/>
+    </row>
+    <row r="11" spans="1:18" ht="13.5" customHeight="1">
       <c r="A11" s="5" t="s">
         <v>21</v>
       </c>
       <c r="B11" s="5" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="C11" s="5" t="s">
-        <v>36</v>
+        <v>155</v>
       </c>
       <c r="D11" s="5" t="s">
-        <v>37</v>
-      </c>
-      <c r="I11" s="4" t="b">
+        <v>34</v>
+      </c>
+      <c r="E11" s="5" t="s">
+        <v>33</v>
+      </c>
+      <c r="J11" s="4" t="b">
         <v>1</v>
       </c>
-      <c r="L11" s="5" t="s">
-        <v>130</v>
-      </c>
-      <c r="M11" s="5" t="b">
+      <c r="N11" s="5" t="b">
         <v>1</v>
       </c>
     </row>
-    <row r="12" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A12" s="2" t="s">
+    <row r="12" spans="1:18" ht="13.5" customHeight="1">
+      <c r="A12" s="5" t="s">
         <v>21</v>
       </c>
       <c r="B12" s="5" t="s">
-        <v>38</v>
+        <v>150</v>
       </c>
       <c r="C12" s="5" t="s">
-        <v>40</v>
+        <v>151</v>
       </c>
       <c r="D12" s="5" t="s">
-        <v>39</v>
-      </c>
-      <c r="I12" s="4" t="b">
+        <v>151</v>
+      </c>
+      <c r="E12" s="5" t="s">
+        <v>151</v>
+      </c>
+      <c r="J12" s="4"/>
+      <c r="N12" s="5" t="b">
         <v>1</v>
       </c>
-      <c r="L12" s="5" t="s">
-        <v>130</v>
-      </c>
-      <c r="M12" s="5" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="13" spans="1:17" x14ac:dyDescent="0.2">
+    </row>
+    <row r="13" spans="1:18" ht="13.5" customHeight="1">
       <c r="A13" s="5" t="s">
         <v>21</v>
       </c>
       <c r="B13" s="5" t="s">
+        <v>35</v>
+      </c>
+      <c r="C13" s="5" t="s">
+        <v>156</v>
+      </c>
+      <c r="D13" s="5" t="s">
+        <v>37</v>
+      </c>
+      <c r="E13" s="5" t="s">
+        <v>36</v>
+      </c>
+      <c r="J13" s="4" t="b">
+        <v>1</v>
+      </c>
+      <c r="M13" s="5" t="s">
+        <v>127</v>
+      </c>
+      <c r="N13" s="5" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="14" spans="1:18">
+      <c r="A14" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="B14" s="5" t="s">
+        <v>38</v>
+      </c>
+      <c r="C14" s="5" t="s">
+        <v>157</v>
+      </c>
+      <c r="D14" s="5" t="s">
+        <v>39</v>
+      </c>
+      <c r="E14" s="5" t="s">
+        <v>40</v>
+      </c>
+      <c r="J14" s="4" t="b">
+        <v>1</v>
+      </c>
+      <c r="M14" s="5" t="s">
+        <v>127</v>
+      </c>
+      <c r="N14" s="5" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="15" spans="1:18">
+      <c r="A15" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="B15" s="5" t="s">
         <v>41</v>
       </c>
-      <c r="C13" s="5" t="s">
+      <c r="C15" s="5" t="s">
+        <v>158</v>
+      </c>
+      <c r="D15" s="5" t="s">
+        <v>43</v>
+      </c>
+      <c r="E15" s="5" t="s">
         <v>42</v>
       </c>
-      <c r="D13" s="5" t="s">
-        <v>43</v>
-      </c>
-      <c r="I13" s="4" t="b">
+      <c r="J15" s="4" t="b">
         <v>1</v>
       </c>
-      <c r="L13" s="5" t="s">
-        <v>130</v>
-      </c>
-    </row>
-    <row r="14" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A14" s="10" t="s">
+      <c r="M15" s="5" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="16" spans="1:18">
+      <c r="A16" s="10" t="s">
         <v>21</v>
       </c>
-      <c r="B14" s="10" t="s">
+      <c r="B16" s="10" t="s">
         <v>44</v>
       </c>
-      <c r="C14" s="2" t="s">
+      <c r="C16" s="9" t="s">
+        <v>163</v>
+      </c>
+      <c r="D16" s="9" t="s">
+        <v>46</v>
+      </c>
+      <c r="E16" s="2" t="s">
         <v>45</v>
       </c>
-      <c r="D14" s="9" t="s">
-        <v>46</v>
-      </c>
-      <c r="E14" s="2"/>
-      <c r="F14" s="2"/>
-      <c r="G14" s="2"/>
-      <c r="I14" s="4"/>
-      <c r="L14" s="5" t="s">
-        <v>130</v>
-      </c>
-    </row>
-    <row r="15" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A15" s="10" t="s">
-        <v>21</v>
-      </c>
-      <c r="B15" s="10" t="s">
-        <v>47</v>
-      </c>
-      <c r="C15" s="2" t="s">
-        <v>48</v>
-      </c>
-      <c r="D15" s="9" t="s">
-        <v>49</v>
-      </c>
-      <c r="E15" s="2"/>
-      <c r="F15" s="2"/>
-      <c r="G15" s="2"/>
-      <c r="I15" s="4" t="b">
-        <v>1</v>
-      </c>
-      <c r="L15" s="5" t="s">
-        <v>130</v>
-      </c>
-    </row>
-    <row r="16" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A16" s="10" t="s">
-        <v>50</v>
-      </c>
-      <c r="B16" s="10" t="s">
-        <v>51</v>
-      </c>
-      <c r="C16" s="2" t="s">
-        <v>52</v>
-      </c>
-      <c r="D16" s="9" t="s">
-        <v>51</v>
-      </c>
-      <c r="E16" s="2"/>
       <c r="F16" s="2"/>
       <c r="G16" s="2"/>
-      <c r="I16" s="4" t="b">
+      <c r="H16" s="2"/>
+      <c r="J16" s="4"/>
+      <c r="M16" s="5" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="17" spans="1:14">
+      <c r="A17" s="10" t="s">
+        <v>21</v>
+      </c>
+      <c r="B17" s="10" t="s">
+        <v>47</v>
+      </c>
+      <c r="C17" s="9" t="s">
+        <v>164</v>
+      </c>
+      <c r="D17" s="9" t="s">
+        <v>49</v>
+      </c>
+      <c r="E17" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="F17" s="2"/>
+      <c r="G17" s="2"/>
+      <c r="H17" s="2"/>
+      <c r="J17" s="4" t="b">
         <v>1</v>
       </c>
-      <c r="L16" s="5" t="s">
-        <v>130</v>
-      </c>
-    </row>
-    <row r="17" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A17" s="7" t="s">
-        <v>53</v>
-      </c>
-      <c r="B17" s="7" t="s">
-        <v>54</v>
-      </c>
-      <c r="C17" s="8" t="s">
-        <v>55</v>
-      </c>
-      <c r="D17" s="2" t="s">
-        <v>56</v>
-      </c>
-      <c r="E17" s="2"/>
-      <c r="F17" s="2"/>
-      <c r="G17" s="2" t="s">
-        <v>122</v>
-      </c>
-      <c r="I17" s="4" t="b">
-        <v>1</v>
-      </c>
-      <c r="L17" s="5" t="s">
-        <v>130</v>
-      </c>
-    </row>
-    <row r="18" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A18" s="7" t="s">
-        <v>57</v>
-      </c>
-      <c r="B18" s="2" t="s">
-        <v>58</v>
-      </c>
-      <c r="C18" s="2" t="s">
-        <v>59</v>
-      </c>
-      <c r="D18" s="2" t="s">
-        <v>59</v>
-      </c>
-      <c r="E18" s="2"/>
+      <c r="M17" s="5" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="18" spans="1:14">
+      <c r="A18" s="10" t="s">
+        <v>50</v>
+      </c>
+      <c r="B18" s="10" t="s">
+        <v>51</v>
+      </c>
+      <c r="C18" s="9" t="s">
+        <v>159</v>
+      </c>
+      <c r="D18" s="9" t="s">
+        <v>51</v>
+      </c>
+      <c r="E18" s="2" t="s">
+        <v>52</v>
+      </c>
       <c r="F18" s="2"/>
       <c r="G18" s="2"/>
-      <c r="I18" s="4" t="b">
+      <c r="H18" s="2"/>
+      <c r="J18" s="4" t="b">
         <v>1</v>
       </c>
-      <c r="L18" s="5" t="s">
-        <v>130</v>
-      </c>
-    </row>
-    <row r="19" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="M18" s="5" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="19" spans="1:14">
       <c r="A19" s="7" t="s">
-        <v>111</v>
-      </c>
-      <c r="B19" s="2"/>
-      <c r="C19" s="2"/>
-      <c r="D19" s="2"/>
-      <c r="E19" s="2"/>
+        <v>53</v>
+      </c>
+      <c r="B19" s="7" t="s">
+        <v>54</v>
+      </c>
+      <c r="C19" s="2" t="s">
+        <v>160</v>
+      </c>
+      <c r="D19" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="E19" s="8" t="s">
+        <v>55</v>
+      </c>
       <c r="F19" s="2"/>
       <c r="G19" s="2"/>
-      <c r="I19" s="4"/>
-    </row>
-    <row r="20" spans="1:13" s="16" customFormat="1" ht="25.5" x14ac:dyDescent="0.2">
-      <c r="A20" s="16" t="s">
+      <c r="H19" s="2" t="s">
+        <v>119</v>
+      </c>
+      <c r="J19" s="4" t="b">
+        <v>1</v>
+      </c>
+      <c r="M19" s="5" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="20" spans="1:14">
+      <c r="A20" s="7" t="s">
+        <v>57</v>
+      </c>
+      <c r="B20" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="C20" s="2" t="s">
+        <v>161</v>
+      </c>
+      <c r="D20" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="E20" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="F20" s="2"/>
+      <c r="G20" s="2"/>
+      <c r="H20" s="2"/>
+      <c r="J20" s="4" t="b">
+        <v>1</v>
+      </c>
+      <c r="M20" s="5" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="21" spans="1:14">
+      <c r="A21" s="7" t="s">
+        <v>110</v>
+      </c>
+      <c r="B21" s="2"/>
+      <c r="C21" s="2"/>
+      <c r="D21" s="2"/>
+      <c r="E21" s="2"/>
+      <c r="F21" s="2"/>
+      <c r="G21" s="2"/>
+      <c r="H21" s="2"/>
+      <c r="J21" s="4"/>
+    </row>
+    <row r="22" spans="1:14" s="16" customFormat="1" ht="24">
+      <c r="A22" s="16" t="s">
         <v>53</v>
       </c>
-      <c r="B20" s="16" t="s">
+      <c r="B22" s="16" t="s">
         <v>60</v>
       </c>
-      <c r="C20" s="16" t="s">
+      <c r="C22" s="16" t="s">
+        <v>165</v>
+      </c>
+      <c r="D22" s="16" t="s">
+        <v>62</v>
+      </c>
+      <c r="E22" s="16" t="s">
         <v>61</v>
       </c>
-      <c r="D20" s="16" t="s">
-        <v>62</v>
-      </c>
-      <c r="G20" s="16" t="s">
+      <c r="H22" s="16" t="s">
+        <v>121</v>
+      </c>
+      <c r="I22" s="16" t="s">
+        <v>122</v>
+      </c>
+      <c r="J22" s="17" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="23" spans="1:14" s="16" customFormat="1" ht="36">
+      <c r="A23" s="16" t="s">
+        <v>123</v>
+      </c>
+      <c r="B23" s="16" t="s">
         <v>124</v>
       </c>
-      <c r="H20" s="16" t="s">
+      <c r="C23" s="16" t="s">
+        <v>166</v>
+      </c>
+      <c r="D23" s="16" t="s">
         <v>125</v>
       </c>
-      <c r="I20" s="17" t="b">
+      <c r="J23" s="17" t="b">
         <v>1</v>
       </c>
-    </row>
-    <row r="21" spans="1:13" s="16" customFormat="1" ht="51" x14ac:dyDescent="0.2">
-      <c r="A21" s="16" t="s">
+      <c r="M23" s="16" t="s">
         <v>126</v>
       </c>
-      <c r="B21" s="16" t="s">
-        <v>127</v>
-      </c>
-      <c r="D21" s="16" t="s">
-        <v>128</v>
-      </c>
-      <c r="I21" s="17" t="b">
-        <v>1</v>
-      </c>
-      <c r="L21" s="16" t="s">
-        <v>129</v>
-      </c>
-    </row>
-    <row r="22" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A22" s="2" t="s">
+    </row>
+    <row r="24" spans="1:14">
+      <c r="A24" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="B22" s="2" t="s">
+      <c r="B24" s="2" t="s">
         <v>63</v>
       </c>
-      <c r="C22" s="2" t="s">
+      <c r="C24" s="2" t="s">
+        <v>232</v>
+      </c>
+      <c r="D24" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="E24" s="2" t="s">
         <v>64</v>
       </c>
-      <c r="D22" s="2" t="s">
-        <v>63</v>
-      </c>
-      <c r="E22" s="2"/>
-      <c r="F22" s="2"/>
-      <c r="G22" s="2"/>
-      <c r="I22" s="4" t="b">
-        <v>1</v>
-      </c>
-      <c r="L22" s="5" t="s">
-        <v>138</v>
-      </c>
-    </row>
-    <row r="23" spans="1:13" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A23" s="2" t="s">
-        <v>65</v>
-      </c>
-      <c r="B23" s="2" t="s">
-        <v>66</v>
-      </c>
-      <c r="C23" s="2" t="s">
-        <v>67</v>
-      </c>
-      <c r="D23" s="2" t="s">
-        <v>66</v>
-      </c>
-      <c r="E23" s="2"/>
-      <c r="F23" s="2"/>
-      <c r="G23" s="2"/>
-      <c r="I23" s="4" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="24" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A24" s="2" t="s">
-        <v>68</v>
-      </c>
-      <c r="B24" s="2" t="s">
-        <v>69</v>
-      </c>
-      <c r="C24" s="2" t="s">
-        <v>70</v>
-      </c>
-      <c r="D24" s="11" t="s">
-        <v>71</v>
-      </c>
-      <c r="E24" s="2"/>
       <c r="F24" s="2"/>
       <c r="G24" s="2"/>
-      <c r="I24" s="4" t="b">
+      <c r="H24" s="2"/>
+      <c r="J24" s="4" t="b">
         <v>1</v>
       </c>
-      <c r="L24" s="5" t="s">
-        <v>112</v>
-      </c>
-    </row>
-    <row r="25" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="M24" s="5" t="s">
+        <v>132</v>
+      </c>
+      <c r="N24" s="5" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="25" spans="1:14">
       <c r="A25" s="2" t="s">
         <v>21</v>
       </c>
       <c r="B25" s="2" t="s">
-        <v>72</v>
+        <v>233</v>
       </c>
       <c r="C25" s="2" t="s">
-        <v>67</v>
-      </c>
-      <c r="D25" s="11" t="s">
-        <v>66</v>
-      </c>
-      <c r="E25" s="2"/>
+        <v>167</v>
+      </c>
+      <c r="D25" s="2" t="s">
+        <v>167</v>
+      </c>
+      <c r="E25" s="2" t="s">
+        <v>234</v>
+      </c>
       <c r="F25" s="2"/>
       <c r="G25" s="2"/>
-      <c r="I25" s="4" t="b">
+      <c r="H25" s="2"/>
+      <c r="J25" s="4"/>
+      <c r="M25" s="5" t="s">
+        <v>132</v>
+      </c>
+      <c r="N25" s="5" t="b">
         <v>1</v>
       </c>
-      <c r="L25" s="5" t="s">
-        <v>113</v>
-      </c>
-    </row>
-    <row r="26" spans="1:13" ht="25.5" x14ac:dyDescent="0.2">
+    </row>
+    <row r="26" spans="1:14" ht="13.5" customHeight="1">
       <c r="A26" s="2" t="s">
-        <v>137</v>
+        <v>65</v>
       </c>
       <c r="B26" s="2" t="s">
-        <v>149</v>
+        <v>66</v>
       </c>
       <c r="C26" s="2" t="s">
-        <v>147</v>
+        <v>168</v>
       </c>
       <c r="D26" s="2" t="s">
-        <v>147</v>
-      </c>
-      <c r="E26" s="2"/>
+        <v>66</v>
+      </c>
+      <c r="E26" s="2" t="s">
+        <v>67</v>
+      </c>
       <c r="F26" s="2"/>
       <c r="G26" s="2"/>
-      <c r="I26" s="4" t="b">
+      <c r="H26" s="2"/>
+      <c r="J26" s="4" t="b">
         <v>1</v>
       </c>
-      <c r="L26" s="5" t="s">
-        <v>130</v>
-      </c>
-    </row>
-    <row r="27" spans="1:13" ht="25.5" x14ac:dyDescent="0.2">
+    </row>
+    <row r="27" spans="1:14">
       <c r="A27" s="2" t="s">
-        <v>151</v>
+        <v>68</v>
       </c>
       <c r="B27" s="2" t="s">
-        <v>150</v>
+        <v>69</v>
       </c>
       <c r="C27" s="2" t="s">
-        <v>148</v>
-      </c>
-      <c r="D27" s="2" t="s">
-        <v>148</v>
-      </c>
-      <c r="E27" s="2"/>
+        <v>169</v>
+      </c>
+      <c r="D27" s="11" t="s">
+        <v>71</v>
+      </c>
+      <c r="E27" s="2" t="s">
+        <v>70</v>
+      </c>
       <c r="F27" s="2"/>
       <c r="G27" s="2"/>
-      <c r="I27" s="4" t="b">
+      <c r="H27" s="2"/>
+      <c r="J27" s="4" t="b">
         <v>1</v>
       </c>
-    </row>
-    <row r="28" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A28" s="5" t="s">
-        <v>156</v>
-      </c>
-      <c r="B28" s="5" t="s">
-        <v>157</v>
-      </c>
-      <c r="C28" s="5" t="s">
-        <v>158</v>
-      </c>
-      <c r="D28" s="5" t="s">
-        <v>158</v>
-      </c>
-      <c r="M28" s="5" t="b">
+      <c r="M27" s="5" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="28" spans="1:14">
+      <c r="A28" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="B28" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="C28" s="2" t="s">
+        <v>170</v>
+      </c>
+      <c r="D28" s="11" t="s">
+        <v>66</v>
+      </c>
+      <c r="E28" s="2" t="s">
+        <v>67</v>
+      </c>
+      <c r="F28" s="2"/>
+      <c r="G28" s="2"/>
+      <c r="H28" s="2"/>
+      <c r="J28" s="4" t="b">
         <v>1</v>
       </c>
-    </row>
-    <row r="29" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A29" s="2"/>
-      <c r="B29" s="2"/>
-      <c r="C29" s="2"/>
-      <c r="D29" s="2"/>
-      <c r="E29" s="2"/>
+      <c r="M28" s="5" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="29" spans="1:14">
+      <c r="A29" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="B29" s="2" t="s">
+        <v>135</v>
+      </c>
+      <c r="C29" s="2" t="s">
+        <v>172</v>
+      </c>
+      <c r="D29" s="2" t="s">
+        <v>133</v>
+      </c>
+      <c r="E29" s="2" t="s">
+        <v>133</v>
+      </c>
       <c r="F29" s="2"/>
       <c r="G29" s="2"/>
-    </row>
-    <row r="30" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A30" s="2"/>
-      <c r="B30" s="2"/>
-      <c r="C30" s="2"/>
-      <c r="D30" s="2"/>
-      <c r="E30" s="2"/>
+      <c r="H29" s="2"/>
+      <c r="J29" s="4" t="b">
+        <v>1</v>
+      </c>
+      <c r="M29" s="5" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="30" spans="1:14">
+      <c r="A30" s="5" t="s">
+        <v>225</v>
+      </c>
+      <c r="B30" s="5" t="s">
+        <v>219</v>
+      </c>
+      <c r="C30" s="2" t="s">
+        <v>213</v>
+      </c>
+      <c r="D30" s="2" t="s">
+        <v>213</v>
+      </c>
+      <c r="E30" s="2" t="s">
+        <v>213</v>
+      </c>
       <c r="F30" s="2"/>
       <c r="G30" s="2"/>
-      <c r="I30" s="3"/>
-    </row>
-    <row r="31" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A31" s="2"/>
-      <c r="B31" s="2"/>
-      <c r="C31" s="2"/>
-      <c r="D31" s="2"/>
-      <c r="E31" s="2"/>
+      <c r="H30" s="2"/>
+      <c r="J30" s="4"/>
+      <c r="M30" s="5" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="31" spans="1:14" ht="16.5" customHeight="1">
+      <c r="A31" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="B31" s="5" t="s">
+        <v>220</v>
+      </c>
+      <c r="C31" s="2" t="s">
+        <v>214</v>
+      </c>
+      <c r="D31" s="2" t="s">
+        <v>214</v>
+      </c>
+      <c r="E31" s="2" t="s">
+        <v>214</v>
+      </c>
       <c r="F31" s="2"/>
       <c r="G31" s="2"/>
-      <c r="I31" s="3"/>
-    </row>
-    <row r="32" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A32" s="2"/>
-      <c r="B32" s="2"/>
-      <c r="C32" s="2"/>
-      <c r="D32" s="2"/>
-      <c r="E32" s="2"/>
+      <c r="H31" s="2"/>
+      <c r="J31" s="4"/>
+      <c r="M31" s="5" t="s">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="32" spans="1:14">
+      <c r="A32" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="B32" s="5" t="s">
+        <v>221</v>
+      </c>
+      <c r="C32" s="2" t="s">
+        <v>215</v>
+      </c>
+      <c r="D32" s="2" t="s">
+        <v>215</v>
+      </c>
+      <c r="E32" s="2" t="s">
+        <v>215</v>
+      </c>
       <c r="F32" s="2"/>
       <c r="G32" s="2"/>
-      <c r="I32" s="3"/>
-    </row>
-    <row r="33" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A33" s="2"/>
-      <c r="B33" s="2"/>
-      <c r="C33" s="2"/>
-      <c r="D33" s="2"/>
-      <c r="E33" s="2"/>
+      <c r="H32" s="2"/>
+      <c r="J32" s="4"/>
+      <c r="M32" s="5" t="s">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="33" spans="1:14">
+      <c r="A33" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="B33" s="5" t="s">
+        <v>222</v>
+      </c>
+      <c r="C33" s="2" t="s">
+        <v>216</v>
+      </c>
+      <c r="D33" s="2" t="s">
+        <v>216</v>
+      </c>
+      <c r="E33" s="2" t="s">
+        <v>216</v>
+      </c>
       <c r="F33" s="2"/>
       <c r="G33" s="2"/>
-    </row>
-    <row r="34" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A34" s="2"/>
-      <c r="B34" s="2"/>
-      <c r="C34" s="2"/>
-      <c r="D34" s="2"/>
-      <c r="E34" s="2"/>
+      <c r="H33" s="2"/>
+      <c r="J33" s="4"/>
+      <c r="M33" s="5" t="s">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="34" spans="1:14" ht="11.25" customHeight="1">
+      <c r="A34" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="B34" s="5" t="s">
+        <v>223</v>
+      </c>
+      <c r="C34" s="2" t="s">
+        <v>217</v>
+      </c>
+      <c r="D34" s="2" t="s">
+        <v>217</v>
+      </c>
+      <c r="E34" s="2" t="s">
+        <v>217</v>
+      </c>
       <c r="F34" s="2"/>
       <c r="G34" s="2"/>
-      <c r="I34" s="3"/>
-    </row>
-    <row r="38" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="I38" s="3"/>
-    </row>
-    <row r="39" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="I39" s="3"/>
-    </row>
-    <row r="47" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="I47" s="3"/>
-    </row>
-    <row r="55" spans="9:9" x14ac:dyDescent="0.2">
-      <c r="I55" s="3"/>
-    </row>
-    <row r="56" spans="9:9" x14ac:dyDescent="0.2">
-      <c r="I56" s="3"/>
-    </row>
-    <row r="57" spans="9:9" x14ac:dyDescent="0.2">
-      <c r="I57" s="3"/>
-    </row>
-    <row r="58" spans="9:9" x14ac:dyDescent="0.2">
-      <c r="I58" s="3"/>
-    </row>
-    <row r="59" spans="9:9" x14ac:dyDescent="0.2">
-      <c r="I59" s="3"/>
-    </row>
-    <row r="76" spans="9:9" x14ac:dyDescent="0.2">
-      <c r="I76" s="3"/>
-    </row>
-    <row r="77" spans="9:9" x14ac:dyDescent="0.2">
-      <c r="I77" s="3"/>
-    </row>
-    <row r="78" spans="9:9" x14ac:dyDescent="0.2">
-      <c r="I78" s="3"/>
-    </row>
-    <row r="79" spans="9:9" x14ac:dyDescent="0.2">
-      <c r="I79" s="3"/>
-    </row>
-    <row r="80" spans="9:9" x14ac:dyDescent="0.2">
-      <c r="I80" s="3"/>
-    </row>
-    <row r="81" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A81" s="3"/>
-      <c r="I81" s="3"/>
-    </row>
-    <row r="82" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A82" s="3"/>
-      <c r="I82" s="3"/>
-    </row>
-    <row r="83" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A83" s="3"/>
-      <c r="I83" s="3"/>
-    </row>
-    <row r="84" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="I84" s="3"/>
-    </row>
-    <row r="86" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="I86" s="3"/>
+      <c r="H34" s="2"/>
+      <c r="J34" s="4"/>
+      <c r="M34" s="5" t="s">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="35" spans="1:14">
+      <c r="A35" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="B35" s="5" t="s">
+        <v>224</v>
+      </c>
+      <c r="C35" s="2" t="s">
+        <v>218</v>
+      </c>
+      <c r="D35" s="2" t="s">
+        <v>218</v>
+      </c>
+      <c r="E35" s="2" t="s">
+        <v>218</v>
+      </c>
+      <c r="F35" s="2"/>
+      <c r="G35" s="2"/>
+      <c r="H35" s="2"/>
+      <c r="J35" s="4"/>
+      <c r="M35" s="5" t="s">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="36" spans="1:14" ht="24">
+      <c r="A36" s="2" t="s">
+        <v>137</v>
+      </c>
+      <c r="B36" s="2" t="s">
+        <v>136</v>
+      </c>
+      <c r="C36" s="5" t="s">
+        <v>171</v>
+      </c>
+      <c r="D36" s="2" t="s">
+        <v>134</v>
+      </c>
+      <c r="E36" s="2" t="s">
+        <v>134</v>
+      </c>
+      <c r="F36" s="2"/>
+      <c r="G36" s="2"/>
+      <c r="H36" s="2"/>
+      <c r="J36" s="4" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="37" spans="1:14">
+      <c r="A37" s="5" t="s">
+        <v>142</v>
+      </c>
+      <c r="B37" s="5" t="s">
+        <v>143</v>
+      </c>
+      <c r="C37" s="5" t="s">
+        <v>144</v>
+      </c>
+      <c r="D37" s="5" t="s">
+        <v>144</v>
+      </c>
+      <c r="E37" s="5" t="s">
+        <v>144</v>
+      </c>
+      <c r="N37" s="5" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="38" spans="1:14">
+      <c r="A38" s="2"/>
+      <c r="B38" s="2"/>
+      <c r="C38" s="2"/>
+      <c r="D38" s="2"/>
+      <c r="E38" s="2"/>
+      <c r="F38" s="2"/>
+      <c r="G38" s="2"/>
+      <c r="H38" s="2"/>
+    </row>
+    <row r="39" spans="1:14">
+      <c r="A39" s="2"/>
+      <c r="B39" s="2"/>
+      <c r="C39" s="2"/>
+      <c r="D39" s="2"/>
+      <c r="E39" s="2"/>
+      <c r="F39" s="2"/>
+      <c r="G39" s="2"/>
+      <c r="H39" s="2"/>
+      <c r="J39" s="3"/>
+    </row>
+    <row r="40" spans="1:14">
+      <c r="A40" s="2"/>
+      <c r="B40" s="2"/>
+      <c r="C40" s="2"/>
+      <c r="D40" s="2"/>
+      <c r="E40" s="2"/>
+      <c r="F40" s="2"/>
+      <c r="G40" s="2"/>
+      <c r="H40" s="2"/>
+      <c r="J40" s="3"/>
+    </row>
+    <row r="41" spans="1:14">
+      <c r="A41" s="2"/>
+      <c r="B41" s="2"/>
+      <c r="C41" s="2"/>
+      <c r="D41" s="2"/>
+      <c r="E41" s="2"/>
+      <c r="F41" s="2"/>
+      <c r="G41" s="2"/>
+      <c r="H41" s="2"/>
+      <c r="J41" s="3"/>
+    </row>
+    <row r="42" spans="1:14">
+      <c r="A42" s="2"/>
+      <c r="B42" s="2"/>
+      <c r="C42" s="2"/>
+      <c r="D42" s="2"/>
+      <c r="E42" s="2"/>
+      <c r="F42" s="2"/>
+      <c r="G42" s="2"/>
+      <c r="H42" s="2"/>
+    </row>
+    <row r="43" spans="1:14">
+      <c r="A43" s="2"/>
+      <c r="B43" s="2"/>
+      <c r="C43" s="2"/>
+      <c r="D43" s="2"/>
+      <c r="E43" s="2"/>
+      <c r="F43" s="2"/>
+      <c r="G43" s="2"/>
+      <c r="H43" s="2"/>
+      <c r="J43" s="3"/>
+    </row>
+    <row r="47" spans="1:14">
+      <c r="J47" s="3"/>
+    </row>
+    <row r="48" spans="1:14">
+      <c r="J48" s="3"/>
+    </row>
+    <row r="56" spans="10:10">
+      <c r="J56" s="3"/>
+    </row>
+    <row r="64" spans="10:10">
+      <c r="J64" s="3"/>
+    </row>
+    <row r="65" spans="10:10">
+      <c r="J65" s="3"/>
+    </row>
+    <row r="66" spans="10:10">
+      <c r="J66" s="3"/>
+    </row>
+    <row r="67" spans="10:10">
+      <c r="J67" s="3"/>
+    </row>
+    <row r="68" spans="10:10">
+      <c r="J68" s="3"/>
+    </row>
+    <row r="85" spans="1:10">
+      <c r="J85" s="3"/>
+    </row>
+    <row r="86" spans="1:10">
+      <c r="J86" s="3"/>
+    </row>
+    <row r="87" spans="1:10">
+      <c r="J87" s="3"/>
+    </row>
+    <row r="88" spans="1:10">
+      <c r="J88" s="3"/>
+    </row>
+    <row r="89" spans="1:10">
+      <c r="J89" s="3"/>
+    </row>
+    <row r="90" spans="1:10">
+      <c r="A90" s="3"/>
+      <c r="J90" s="3"/>
+    </row>
+    <row r="91" spans="1:10">
+      <c r="A91" s="3"/>
+      <c r="J91" s="3"/>
+    </row>
+    <row r="92" spans="1:10">
+      <c r="A92" s="3"/>
+      <c r="J92" s="3"/>
+    </row>
+    <row r="93" spans="1:10">
+      <c r="J93" s="3"/>
+    </row>
+    <row r="95" spans="1:10">
+      <c r="J95" s="3"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -2423,23 +2947,22 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D69"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:E71"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C6" sqref="C6"/>
+    <sheetView topLeftCell="A4" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
+      <selection activeCell="A29" sqref="A29:XFD30"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.875" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="10.875" defaultRowHeight="12"/>
   <cols>
     <col min="1" max="1" width="13.75" style="5" customWidth="1"/>
-    <col min="2" max="2" width="15.125" style="5" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="19.5" style="5" customWidth="1"/>
-    <col min="4" max="4" width="18.75" style="5" customWidth="1"/>
-    <col min="5" max="16384" width="10.875" style="5"/>
+    <col min="2" max="2" width="28.25" style="5" bestFit="1" customWidth="1"/>
+    <col min="3" max="5" width="34.375" style="5" bestFit="1" customWidth="1"/>
+    <col min="6" max="16384" width="10.875" style="5"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:5">
       <c r="A1" s="4" t="s">
         <v>12</v>
       </c>
@@ -2447,13 +2970,16 @@
         <v>1</v>
       </c>
       <c r="C1" s="6" t="s">
+        <v>149</v>
+      </c>
+      <c r="D1" s="6" t="s">
         <v>18</v>
       </c>
-      <c r="D1" s="6" t="s">
+      <c r="E1" s="6" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:5">
       <c r="A2" s="12" t="s">
         <v>51</v>
       </c>
@@ -2461,13 +2987,16 @@
         <v>73</v>
       </c>
       <c r="C2" s="14" t="s">
+        <v>173</v>
+      </c>
+      <c r="D2" s="14" t="s">
         <v>75</v>
       </c>
-      <c r="D2" s="14" t="s">
+      <c r="E2" s="14" t="s">
         <v>77</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:5">
       <c r="A3" s="12" t="s">
         <v>51</v>
       </c>
@@ -2475,13 +3004,16 @@
         <v>74</v>
       </c>
       <c r="C3" s="14" t="s">
+        <v>174</v>
+      </c>
+      <c r="D3" s="14" t="s">
         <v>76</v>
       </c>
-      <c r="D3" s="14" t="s">
+      <c r="E3" s="14" t="s">
         <v>78</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:5">
       <c r="A4" s="12" t="s">
         <v>58</v>
       </c>
@@ -2489,13 +3021,16 @@
         <v>1</v>
       </c>
       <c r="C4" s="14" t="s">
+        <v>175</v>
+      </c>
+      <c r="D4" s="14" t="s">
         <v>81</v>
       </c>
-      <c r="D4" s="14" t="s">
+      <c r="E4" s="14" t="s">
         <v>79</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:5">
       <c r="A5" s="12" t="s">
         <v>58</v>
       </c>
@@ -2503,562 +3038,725 @@
         <v>2</v>
       </c>
       <c r="C5" s="14" t="s">
+        <v>176</v>
+      </c>
+      <c r="D5" s="14" t="s">
         <v>82</v>
       </c>
-      <c r="D5" s="14" t="s">
+      <c r="E5" s="14" t="s">
         <v>80</v>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:5">
       <c r="A6" s="12" t="s">
         <v>66</v>
       </c>
       <c r="B6" s="13" t="s">
-        <v>134</v>
+        <v>180</v>
       </c>
       <c r="C6" s="14" t="s">
-        <v>133</v>
+        <v>181</v>
       </c>
       <c r="D6" s="14" t="s">
-        <v>133</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.2">
+        <v>130</v>
+      </c>
+      <c r="E6" s="14" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5">
       <c r="A7" s="12" t="s">
         <v>66</v>
       </c>
       <c r="B7" s="13" t="s">
-        <v>131</v>
+        <v>182</v>
       </c>
       <c r="C7" s="14" t="s">
-        <v>99</v>
+        <v>183</v>
       </c>
       <c r="D7" s="14" t="s">
-        <v>131</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.2">
+        <v>98</v>
+      </c>
+      <c r="E7" s="14" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5">
       <c r="A8" s="12" t="s">
         <v>66</v>
       </c>
       <c r="B8" s="13" t="s">
-        <v>83</v>
+        <v>184</v>
       </c>
       <c r="C8" s="14" t="s">
-        <v>100</v>
+        <v>185</v>
       </c>
       <c r="D8" s="14" t="s">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.2">
+        <v>99</v>
+      </c>
+      <c r="E8" s="14" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5">
       <c r="A9" s="12" t="s">
         <v>66</v>
       </c>
       <c r="B9" s="13" t="s">
-        <v>132</v>
-      </c>
-      <c r="C9" s="13" t="s">
-        <v>132</v>
+        <v>186</v>
+      </c>
+      <c r="C9" s="14" t="s">
+        <v>187</v>
       </c>
       <c r="D9" s="13" t="s">
-        <v>132</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.2">
+        <v>129</v>
+      </c>
+      <c r="E9" s="13" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5">
       <c r="A10" s="12" t="s">
         <v>66</v>
       </c>
       <c r="B10" s="13" t="s">
-        <v>84</v>
+        <v>188</v>
       </c>
       <c r="C10" s="14" t="s">
-        <v>101</v>
+        <v>189</v>
       </c>
       <c r="D10" s="14" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.2">
+        <v>100</v>
+      </c>
+      <c r="E10" s="14" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5">
       <c r="A11" s="12" t="s">
         <v>66</v>
       </c>
       <c r="B11" s="13" t="s">
-        <v>85</v>
+        <v>190</v>
       </c>
       <c r="C11" s="14" t="s">
-        <v>102</v>
+        <v>191</v>
       </c>
       <c r="D11" s="14" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.2">
+        <v>101</v>
+      </c>
+      <c r="E11" s="14" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5">
       <c r="A12" s="12" t="s">
         <v>66</v>
       </c>
       <c r="B12" s="13" t="s">
-        <v>136</v>
+        <v>192</v>
       </c>
       <c r="C12" s="14" t="s">
-        <v>135</v>
+        <v>193</v>
       </c>
       <c r="D12" s="14" t="s">
-        <v>135</v>
-      </c>
-    </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.2">
+        <v>131</v>
+      </c>
+      <c r="E12" s="14" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5">
       <c r="A13" s="12" t="s">
         <v>66</v>
       </c>
       <c r="B13" s="13" t="s">
+        <v>194</v>
+      </c>
+      <c r="C13" s="14" t="s">
+        <v>195</v>
+      </c>
+      <c r="D13" s="14" t="s">
+        <v>102</v>
+      </c>
+      <c r="E13" s="13" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5">
+      <c r="A14" s="12" t="s">
+        <v>66</v>
+      </c>
+      <c r="B14" s="13" t="s">
+        <v>196</v>
+      </c>
+      <c r="C14" s="14" t="s">
+        <v>197</v>
+      </c>
+      <c r="D14" s="14" t="s">
+        <v>197</v>
+      </c>
+      <c r="E14" s="14" t="s">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5">
+      <c r="A15" s="12" t="s">
+        <v>66</v>
+      </c>
+      <c r="B15" s="13" t="s">
+        <v>198</v>
+      </c>
+      <c r="C15" s="14" t="s">
+        <v>199</v>
+      </c>
+      <c r="D15" s="14" t="s">
+        <v>199</v>
+      </c>
+      <c r="E15" s="14" t="s">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5">
+      <c r="A16" s="12" t="s">
+        <v>66</v>
+      </c>
+      <c r="B16" s="13" t="s">
+        <v>200</v>
+      </c>
+      <c r="C16" s="14" t="s">
+        <v>201</v>
+      </c>
+      <c r="D16" s="14" t="s">
+        <v>201</v>
+      </c>
+      <c r="E16" s="14" t="s">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5">
+      <c r="A17" s="12" t="s">
+        <v>66</v>
+      </c>
+      <c r="B17" s="13" t="s">
+        <v>202</v>
+      </c>
+      <c r="C17" s="14" t="s">
+        <v>203</v>
+      </c>
+      <c r="D17" s="14" t="s">
+        <v>203</v>
+      </c>
+      <c r="E17" s="14" t="s">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5">
+      <c r="A18" s="12" t="s">
+        <v>66</v>
+      </c>
+      <c r="B18" s="13" t="s">
+        <v>204</v>
+      </c>
+      <c r="C18" s="14" t="s">
+        <v>205</v>
+      </c>
+      <c r="D18" s="14" t="s">
+        <v>205</v>
+      </c>
+      <c r="E18" s="14" t="s">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5">
+      <c r="A19" s="12" t="s">
+        <v>66</v>
+      </c>
+      <c r="B19" s="13" t="s">
+        <v>206</v>
+      </c>
+      <c r="C19" s="14" t="s">
+        <v>179</v>
+      </c>
+      <c r="D19" s="14" t="s">
+        <v>179</v>
+      </c>
+      <c r="E19" s="14" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5">
+      <c r="A20" s="12" t="s">
+        <v>69</v>
+      </c>
+      <c r="B20" s="13" t="s">
         <v>86</v>
       </c>
-      <c r="C13" s="14" t="s">
+      <c r="C20" s="14" t="s">
+        <v>183</v>
+      </c>
+      <c r="D20" s="14" t="s">
         <v>103</v>
       </c>
-      <c r="D13" s="13" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A14" s="12" t="s">
+      <c r="E20" s="14" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5">
+      <c r="A21" s="12" t="s">
         <v>69</v>
       </c>
-      <c r="B14" s="13" t="s">
+      <c r="B21" s="13" t="s">
         <v>87</v>
       </c>
-      <c r="C14" s="14" t="s">
+      <c r="C21" s="14" t="s">
+        <v>207</v>
+      </c>
+      <c r="D21" s="14" t="s">
         <v>104</v>
       </c>
-      <c r="D14" s="14" t="s">
+      <c r="E21" s="14" t="s">
         <v>93</v>
       </c>
     </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A15" s="12" t="s">
+    <row r="22" spans="1:5">
+      <c r="A22" s="12" t="s">
         <v>69</v>
       </c>
-      <c r="B15" s="13" t="s">
+      <c r="B22" s="13" t="s">
         <v>88</v>
       </c>
-      <c r="C15" s="14" t="s">
+      <c r="C22" s="14" t="s">
+        <v>187</v>
+      </c>
+      <c r="D22" s="14" t="s">
         <v>105</v>
       </c>
-      <c r="D15" s="14" t="s">
+      <c r="E22" s="14" t="s">
         <v>94</v>
       </c>
     </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A16" s="12" t="s">
+    <row r="23" spans="1:5">
+      <c r="A23" s="12" t="s">
         <v>69</v>
       </c>
-      <c r="B16" s="13" t="s">
+      <c r="B23" s="13" t="s">
         <v>89</v>
       </c>
-      <c r="C16" s="14" t="s">
+      <c r="C23" s="14" t="s">
+        <v>208</v>
+      </c>
+      <c r="D23" s="14" t="s">
         <v>106</v>
       </c>
-      <c r="D16" s="14" t="s">
+      <c r="E23" s="14" t="s">
         <v>95</v>
       </c>
     </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A17" s="12" t="s">
+    <row r="24" spans="1:5">
+      <c r="A24" s="12" t="s">
         <v>69</v>
       </c>
-      <c r="B17" s="13" t="s">
+      <c r="B24" s="13" t="s">
         <v>90</v>
       </c>
-      <c r="C17" s="14" t="s">
+      <c r="C24" s="14" t="s">
+        <v>209</v>
+      </c>
+      <c r="D24" s="14" t="s">
         <v>107</v>
       </c>
-      <c r="D17" s="14" t="s">
+      <c r="E24" s="14" t="s">
         <v>96</v>
       </c>
     </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A18" s="12" t="s">
+    <row r="25" spans="1:5">
+      <c r="A25" s="12" t="s">
         <v>69</v>
       </c>
-      <c r="B18" s="13" t="s">
-        <v>91</v>
-      </c>
-      <c r="C18" s="14" t="s">
+      <c r="B25" s="13">
+        <v>888</v>
+      </c>
+      <c r="C25" s="14" t="s">
+        <v>210</v>
+      </c>
+      <c r="D25" s="14" t="s">
         <v>108</v>
       </c>
-      <c r="D18" s="14" t="s">
+      <c r="E25" s="14" t="s">
         <v>97</v>
       </c>
     </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A19" s="12" t="s">
-        <v>69</v>
-      </c>
-      <c r="B19" s="13">
-        <v>888</v>
-      </c>
-      <c r="C19" s="14" t="s">
-        <v>109</v>
-      </c>
-      <c r="D19" s="14" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A20" s="12" t="s">
+    <row r="26" spans="1:5">
+      <c r="A26" s="12" t="s">
+        <v>138</v>
+      </c>
+      <c r="B26" s="13">
+        <v>1</v>
+      </c>
+      <c r="C26" s="14" t="s">
+        <v>177</v>
+      </c>
+      <c r="D26" s="14" t="s">
         <v>139</v>
       </c>
-      <c r="B20" s="13" t="s">
+      <c r="E26" s="14" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="27" spans="1:5">
+      <c r="A27" s="12" t="s">
+        <v>138</v>
+      </c>
+      <c r="B27" s="13">
+        <v>2</v>
+      </c>
+      <c r="C27" s="14" t="s">
+        <v>178</v>
+      </c>
+      <c r="D27" s="14" t="s">
+        <v>140</v>
+      </c>
+      <c r="E27" s="14" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="28" spans="1:5">
+      <c r="A28" s="12" t="s">
+        <v>138</v>
+      </c>
+      <c r="B28" s="13">
+        <v>3</v>
+      </c>
+      <c r="C28" s="14" t="s">
+        <v>179</v>
+      </c>
+      <c r="D28" s="14" t="s">
         <v>141</v>
       </c>
-      <c r="C20" s="14" t="s">
-        <v>140</v>
-      </c>
-      <c r="D20" s="14" t="s">
-        <v>140</v>
-      </c>
-    </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A21" s="12" t="s">
-        <v>139</v>
-      </c>
-      <c r="B21" s="13" t="s">
-        <v>142</v>
-      </c>
-      <c r="C21" s="14" t="s">
-        <v>145</v>
-      </c>
-      <c r="D21" s="14" t="s">
-        <v>145</v>
-      </c>
-    </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A22" s="12" t="s">
-        <v>139</v>
-      </c>
-      <c r="B22" s="13" t="s">
-        <v>143</v>
-      </c>
-      <c r="C22" s="13" t="s">
-        <v>146</v>
-      </c>
-      <c r="D22" s="13" t="s">
-        <v>146</v>
-      </c>
-    </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A23" s="12" t="s">
-        <v>139</v>
-      </c>
-      <c r="B23" s="13" t="s">
-        <v>144</v>
-      </c>
-      <c r="C23" s="13" t="s">
-        <v>144</v>
-      </c>
-      <c r="D23" s="13" t="s">
-        <v>144</v>
-      </c>
-    </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A24" s="12" t="s">
-        <v>152</v>
-      </c>
-      <c r="B24" s="13">
-        <v>1</v>
-      </c>
-      <c r="C24" s="14" t="s">
-        <v>153</v>
-      </c>
-      <c r="D24" s="14" t="s">
-        <v>153</v>
-      </c>
-    </row>
-    <row r="25" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A25" s="12" t="s">
-        <v>152</v>
-      </c>
-      <c r="B25" s="13">
-        <v>2</v>
-      </c>
-      <c r="C25" s="14" t="s">
-        <v>154</v>
-      </c>
-      <c r="D25" s="14" t="s">
-        <v>154</v>
-      </c>
-    </row>
-    <row r="26" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A26" s="12" t="s">
-        <v>152</v>
-      </c>
-      <c r="B26" s="13">
-        <v>3</v>
-      </c>
-      <c r="C26" s="14" t="s">
-        <v>155</v>
-      </c>
-      <c r="D26" s="14" t="s">
-        <v>155</v>
-      </c>
-    </row>
-    <row r="27" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A27" s="12"/>
-      <c r="B27" s="13"/>
-      <c r="C27" s="14"/>
-      <c r="D27" s="14"/>
-    </row>
-    <row r="28" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A28" s="12"/>
-      <c r="B28" s="13"/>
-      <c r="C28" s="14"/>
-      <c r="D28" s="14"/>
-    </row>
-    <row r="29" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A29" s="12"/>
-      <c r="B29" s="13"/>
-      <c r="C29" s="14"/>
-      <c r="D29" s="14"/>
-    </row>
-    <row r="30" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A30" s="12"/>
-      <c r="B30" s="13"/>
-      <c r="C30" s="14"/>
-      <c r="D30" s="14"/>
-    </row>
-    <row r="31" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E28" s="14" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="29" spans="1:5">
+      <c r="A29" s="12" t="s">
+        <v>226</v>
+      </c>
+      <c r="B29" s="13" t="s">
+        <v>227</v>
+      </c>
+      <c r="C29" s="14" t="s">
+        <v>228</v>
+      </c>
+      <c r="D29" s="14" t="s">
+        <v>228</v>
+      </c>
+      <c r="E29" s="14" t="s">
+        <v>228</v>
+      </c>
+    </row>
+    <row r="30" spans="1:5">
+      <c r="A30" s="12" t="s">
+        <v>226</v>
+      </c>
+      <c r="B30" s="13" t="s">
+        <v>85</v>
+      </c>
+      <c r="C30" s="14" t="s">
+        <v>229</v>
+      </c>
+      <c r="D30" s="14" t="s">
+        <v>229</v>
+      </c>
+      <c r="E30" s="14" t="s">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="31" spans="1:5">
       <c r="A31" s="12"/>
       <c r="B31" s="13"/>
       <c r="C31" s="14"/>
       <c r="D31" s="14"/>
-    </row>
-    <row r="32" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E31" s="14"/>
+    </row>
+    <row r="32" spans="1:5">
       <c r="A32" s="12"/>
       <c r="B32" s="13"/>
       <c r="C32" s="14"/>
       <c r="D32" s="14"/>
-    </row>
-    <row r="33" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E32" s="14"/>
+    </row>
+    <row r="33" spans="1:5">
       <c r="A33" s="12"/>
       <c r="B33" s="13"/>
       <c r="C33" s="14"/>
       <c r="D33" s="14"/>
-    </row>
-    <row r="34" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E33" s="14"/>
+    </row>
+    <row r="34" spans="1:5">
       <c r="A34" s="12"/>
       <c r="B34" s="13"/>
       <c r="C34" s="14"/>
       <c r="D34" s="14"/>
-    </row>
-    <row r="35" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E34" s="14"/>
+    </row>
+    <row r="35" spans="1:5">
       <c r="A35" s="12"/>
       <c r="B35" s="13"/>
       <c r="C35" s="14"/>
       <c r="D35" s="14"/>
-    </row>
-    <row r="36" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E35" s="14"/>
+    </row>
+    <row r="36" spans="1:5">
       <c r="A36" s="12"/>
       <c r="B36" s="13"/>
       <c r="C36" s="14"/>
       <c r="D36" s="14"/>
-    </row>
-    <row r="37" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E36" s="14"/>
+    </row>
+    <row r="37" spans="1:5">
       <c r="A37" s="12"/>
       <c r="B37" s="13"/>
       <c r="C37" s="14"/>
       <c r="D37" s="14"/>
-    </row>
-    <row r="38" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E37" s="14"/>
+    </row>
+    <row r="38" spans="1:5">
       <c r="A38" s="12"/>
       <c r="B38" s="13"/>
       <c r="C38" s="14"/>
       <c r="D38" s="14"/>
-    </row>
-    <row r="39" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E38" s="14"/>
+    </row>
+    <row r="39" spans="1:5">
       <c r="A39" s="12"/>
       <c r="B39" s="13"/>
       <c r="C39" s="14"/>
       <c r="D39" s="14"/>
-    </row>
-    <row r="40" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E39" s="14"/>
+    </row>
+    <row r="40" spans="1:5">
       <c r="A40" s="12"/>
       <c r="B40" s="13"/>
       <c r="C40" s="14"/>
       <c r="D40" s="14"/>
-    </row>
-    <row r="41" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E40" s="14"/>
+    </row>
+    <row r="41" spans="1:5">
       <c r="A41" s="12"/>
       <c r="B41" s="13"/>
       <c r="C41" s="14"/>
       <c r="D41" s="14"/>
-    </row>
-    <row r="42" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E41" s="14"/>
+    </row>
+    <row r="42" spans="1:5">
       <c r="A42" s="12"/>
       <c r="B42" s="13"/>
       <c r="C42" s="14"/>
       <c r="D42" s="14"/>
-    </row>
-    <row r="43" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E42" s="14"/>
+    </row>
+    <row r="43" spans="1:5">
       <c r="A43" s="12"/>
       <c r="B43" s="13"/>
       <c r="C43" s="14"/>
       <c r="D43" s="14"/>
-    </row>
-    <row r="44" spans="1:4" s="15" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="E43" s="14"/>
+    </row>
+    <row r="44" spans="1:5">
+      <c r="A44" s="12"/>
       <c r="B44" s="13"/>
       <c r="C44" s="14"/>
       <c r="D44" s="14"/>
-    </row>
-    <row r="45" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A45" s="15"/>
+      <c r="E44" s="14"/>
+    </row>
+    <row r="45" spans="1:5">
+      <c r="A45" s="12"/>
       <c r="B45" s="13"/>
       <c r="C45" s="14"/>
       <c r="D45" s="14"/>
-    </row>
-    <row r="46" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A46" s="15"/>
+      <c r="E45" s="14"/>
+    </row>
+    <row r="46" spans="1:5" s="15" customFormat="1">
       <c r="B46" s="13"/>
       <c r="C46" s="14"/>
       <c r="D46" s="14"/>
-    </row>
-    <row r="47" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E46" s="14"/>
+    </row>
+    <row r="47" spans="1:5">
       <c r="A47" s="15"/>
       <c r="B47" s="13"/>
       <c r="C47" s="14"/>
       <c r="D47" s="14"/>
-    </row>
-    <row r="48" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E47" s="14"/>
+    </row>
+    <row r="48" spans="1:5">
       <c r="A48" s="15"/>
       <c r="B48" s="13"/>
       <c r="C48" s="14"/>
       <c r="D48" s="14"/>
-    </row>
-    <row r="49" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E48" s="14"/>
+    </row>
+    <row r="49" spans="1:5">
       <c r="A49" s="15"/>
       <c r="B49" s="13"/>
       <c r="C49" s="14"/>
       <c r="D49" s="14"/>
-    </row>
-    <row r="50" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E49" s="14"/>
+    </row>
+    <row r="50" spans="1:5">
       <c r="A50" s="15"/>
       <c r="B50" s="13"/>
       <c r="C50" s="14"/>
       <c r="D50" s="14"/>
-    </row>
-    <row r="51" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E50" s="14"/>
+    </row>
+    <row r="51" spans="1:5">
       <c r="A51" s="15"/>
       <c r="B51" s="13"/>
       <c r="C51" s="14"/>
       <c r="D51" s="14"/>
-    </row>
-    <row r="52" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E51" s="14"/>
+    </row>
+    <row r="52" spans="1:5">
       <c r="A52" s="15"/>
       <c r="B52" s="13"/>
       <c r="C52" s="14"/>
       <c r="D52" s="14"/>
-    </row>
-    <row r="53" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E52" s="14"/>
+    </row>
+    <row r="53" spans="1:5">
       <c r="A53" s="15"/>
       <c r="B53" s="13"/>
       <c r="C53" s="14"/>
       <c r="D53" s="14"/>
-    </row>
-    <row r="54" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E53" s="14"/>
+    </row>
+    <row r="54" spans="1:5">
       <c r="A54" s="15"/>
       <c r="B54" s="13"/>
       <c r="C54" s="14"/>
       <c r="D54" s="14"/>
-    </row>
-    <row r="55" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E54" s="14"/>
+    </row>
+    <row r="55" spans="1:5">
       <c r="A55" s="15"/>
       <c r="B55" s="13"/>
       <c r="C55" s="14"/>
       <c r="D55" s="14"/>
-    </row>
-    <row r="56" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E55" s="14"/>
+    </row>
+    <row r="56" spans="1:5">
       <c r="A56" s="15"/>
       <c r="B56" s="13"/>
       <c r="C56" s="14"/>
       <c r="D56" s="14"/>
-    </row>
-    <row r="57" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E56" s="14"/>
+    </row>
+    <row r="57" spans="1:5">
       <c r="A57" s="15"/>
       <c r="B57" s="13"/>
       <c r="C57" s="14"/>
       <c r="D57" s="14"/>
-    </row>
-    <row r="58" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E57" s="14"/>
+    </row>
+    <row r="58" spans="1:5">
       <c r="A58" s="15"/>
       <c r="B58" s="13"/>
       <c r="C58" s="14"/>
       <c r="D58" s="14"/>
-    </row>
-    <row r="59" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E58" s="14"/>
+    </row>
+    <row r="59" spans="1:5">
       <c r="A59" s="15"/>
       <c r="B59" s="13"/>
       <c r="C59" s="14"/>
       <c r="D59" s="14"/>
-    </row>
-    <row r="60" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E59" s="14"/>
+    </row>
+    <row r="60" spans="1:5">
       <c r="A60" s="15"/>
       <c r="B60" s="13"/>
       <c r="C60" s="14"/>
       <c r="D60" s="14"/>
-    </row>
-    <row r="61" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E60" s="14"/>
+    </row>
+    <row r="61" spans="1:5">
       <c r="A61" s="15"/>
       <c r="B61" s="13"/>
       <c r="C61" s="14"/>
       <c r="D61" s="14"/>
-    </row>
-    <row r="62" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E61" s="14"/>
+    </row>
+    <row r="62" spans="1:5">
       <c r="A62" s="15"/>
       <c r="B62" s="13"/>
       <c r="C62" s="14"/>
       <c r="D62" s="14"/>
-    </row>
-    <row r="63" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E62" s="14"/>
+    </row>
+    <row r="63" spans="1:5">
       <c r="A63" s="15"/>
       <c r="B63" s="13"/>
       <c r="C63" s="14"/>
       <c r="D63" s="14"/>
-    </row>
-    <row r="64" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E63" s="14"/>
+    </row>
+    <row r="64" spans="1:5">
       <c r="A64" s="15"/>
       <c r="B64" s="13"/>
       <c r="C64" s="14"/>
       <c r="D64" s="14"/>
-    </row>
-    <row r="65" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E64" s="14"/>
+    </row>
+    <row r="65" spans="1:5">
       <c r="A65" s="15"/>
       <c r="B65" s="13"/>
       <c r="C65" s="14"/>
       <c r="D65" s="14"/>
-    </row>
-    <row r="66" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E65" s="14"/>
+    </row>
+    <row r="66" spans="1:5">
       <c r="A66" s="15"/>
       <c r="B66" s="13"/>
       <c r="C66" s="14"/>
       <c r="D66" s="14"/>
-    </row>
-    <row r="67" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E66" s="14"/>
+    </row>
+    <row r="67" spans="1:5">
       <c r="A67" s="15"/>
       <c r="B67" s="13"/>
       <c r="C67" s="14"/>
       <c r="D67" s="14"/>
-    </row>
-    <row r="68" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E67" s="14"/>
+    </row>
+    <row r="68" spans="1:5">
       <c r="A68" s="15"/>
       <c r="B68" s="13"/>
       <c r="C68" s="14"/>
       <c r="D68" s="14"/>
-    </row>
-    <row r="69" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E68" s="14"/>
+    </row>
+    <row r="69" spans="1:5">
       <c r="A69" s="15"/>
       <c r="B69" s="13"/>
       <c r="C69" s="14"/>
       <c r="D69" s="14"/>
+      <c r="E69" s="14"/>
+    </row>
+    <row r="70" spans="1:5">
+      <c r="A70" s="15"/>
+      <c r="B70" s="13"/>
+      <c r="C70" s="14"/>
+      <c r="D70" s="14"/>
+      <c r="E70" s="14"/>
+    </row>
+    <row r="71" spans="1:5">
+      <c r="A71" s="15"/>
+      <c r="B71" s="13"/>
+      <c r="C71" s="14"/>
+      <c r="D71" s="14"/>
+      <c r="E71" s="14"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -3067,35 +3765,47 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C2"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:D2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+      <selection activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15"/>
+  <cols>
+    <col min="1" max="1" width="22" customWidth="1"/>
+    <col min="2" max="2" width="19.625" customWidth="1"/>
+    <col min="3" max="3" width="17" customWidth="1"/>
+    <col min="4" max="4" width="31" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:4">
       <c r="A1" s="1" t="s">
+        <v>115</v>
+      </c>
+      <c r="B1" t="s">
         <v>116</v>
       </c>
-      <c r="B1" t="s">
+      <c r="C1" t="s">
         <v>117</v>
       </c>
-      <c r="C1" t="s">
+      <c r="D1" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4">
+      <c r="A2" s="1" t="s">
+        <v>148</v>
+      </c>
+      <c r="B2" t="s">
         <v>118</v>
       </c>
-    </row>
-    <row r="2" spans="1:3" ht="31.5" x14ac:dyDescent="0.25">
-      <c r="A2" s="1" t="s">
-        <v>121</v>
-      </c>
-      <c r="B2" t="s">
-        <v>120</v>
-      </c>
       <c r="C2" t="s">
-        <v>119</v>
+        <v>145</v>
+      </c>
+      <c r="D2" t="s">
+        <v>147</v>
       </c>
     </row>
   </sheetData>

--- a/xforms/xlsforms/in_migration.xlsx
+++ b/xforms/xlsforms/in_migration.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="357" uniqueCount="235">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="483" uniqueCount="266">
   <si>
     <t>type</t>
   </si>
@@ -375,18 +375,12 @@
     <t>in_migration</t>
   </si>
   <si>
-    <t>. &lt; today()</t>
-  </si>
-  <si>
     <t>individualInfo</t>
   </si>
   <si>
     <t>. &lt;= today()</t>
   </si>
   <si>
-    <t>the migration date can not be in the future</t>
-  </si>
-  <si>
     <t>note</t>
   </si>
   <si>
@@ -531,12 +525,6 @@
     <t>Introduza a razão</t>
   </si>
   <si>
-    <t>O individuo em questão pretende permacecer aqui por longo periodo ou curto periodo?</t>
-  </si>
-  <si>
-    <t>Nome do agregado de origem</t>
-  </si>
-  <si>
     <t>Masculino</t>
   </si>
   <si>
@@ -549,12 +537,6 @@
     <t>Aproximado</t>
   </si>
   <si>
-    <t>Longo periodo (mais do que 1 ano)</t>
-  </si>
-  <si>
-    <t>Curto periodo (até 1 ano)</t>
-  </si>
-  <si>
     <t>Não sabe</t>
   </si>
   <si>
@@ -657,45 +639,6 @@
     <t>Agregado de destino</t>
   </si>
   <si>
-    <t>Pais de Origem</t>
-  </si>
-  <si>
-    <t>Nome do Pais de Origem</t>
-  </si>
-  <si>
-    <t>Provincia de Origem</t>
-  </si>
-  <si>
-    <t>Distrito de Origem</t>
-  </si>
-  <si>
-    <t>Posto Administrativo de Origem</t>
-  </si>
-  <si>
-    <t>Localidade  de Origem</t>
-  </si>
-  <si>
-    <t>isMozambique</t>
-  </si>
-  <si>
-    <t>countryName</t>
-  </si>
-  <si>
-    <t>province</t>
-  </si>
-  <si>
-    <t>district</t>
-  </si>
-  <si>
-    <t>adminPost</t>
-  </si>
-  <si>
-    <t>locality</t>
-  </si>
-  <si>
-    <t>select_one countries</t>
-  </si>
-  <si>
     <t>countries</t>
   </si>
   <si>
@@ -708,12 +651,6 @@
     <t>Outro país</t>
   </si>
   <si>
-    <t>${isMozambique} = 'OTHER' and ${migrationType} = 'EXTERNAL_INMIGRATION'</t>
-  </si>
-  <si>
-    <t>${isMozambique} = 'MOZ' and ${migrationType} = 'EXTERNAL_INMIGRATION'</t>
-  </si>
-  <si>
     <t>ExtId do Agregado de Origem</t>
   </si>
   <si>
@@ -721,6 +658,162 @@
   </si>
   <si>
     <t>Agregado de origem</t>
+  </si>
+  <si>
+    <t>A Data não pode ser maior que data de hoje</t>
+  </si>
+  <si>
+    <t>A data de migração não pode estar no futuro</t>
+  </si>
+  <si>
+    <t>De 3 a 6 meses</t>
+  </si>
+  <si>
+    <t>De 6 meses a 1 ano</t>
+  </si>
+  <si>
+    <t>Mais de 1 ano</t>
+  </si>
+  <si>
+    <t>Tempo que prevê permanecer neste agregado?</t>
+  </si>
+  <si>
+    <t>Relação do imigrante com o chefe de agregado de origem?</t>
+  </si>
+  <si>
+    <t>relationWithOriginHead</t>
+  </si>
+  <si>
+    <t>select_one relation_with_head</t>
+  </si>
+  <si>
+    <t>relation_with_head</t>
+  </si>
+  <si>
+    <t>Pai/Mãe</t>
+  </si>
+  <si>
+    <t>Filho/a</t>
+  </si>
+  <si>
+    <t>Irmão/a</t>
+  </si>
+  <si>
+    <t>Esposo/a</t>
+  </si>
+  <si>
+    <t>Nora</t>
+  </si>
+  <si>
+    <t>Cunhado/a</t>
+  </si>
+  <si>
+    <t>Tio/a</t>
+  </si>
+  <si>
+    <t>Neto/a</t>
+  </si>
+  <si>
+    <t>Enteado/a</t>
+  </si>
+  <si>
+    <t>Primo/a</t>
+  </si>
+  <si>
+    <t>Sobrinho/a</t>
+  </si>
+  <si>
+    <t>Avó</t>
+  </si>
+  <si>
+    <t>Não família</t>
+  </si>
+  <si>
+    <t>Relação do Imigrante com o chefe de agregado de destino?</t>
+  </si>
+  <si>
+    <t>relationWithDestinyOriginHead</t>
+  </si>
+  <si>
+    <t>Lugar de origem</t>
+  </si>
+  <si>
+    <t>select_one origins</t>
+  </si>
+  <si>
+    <t>origins</t>
+  </si>
+  <si>
+    <t>Provincia de Maputo</t>
+  </si>
+  <si>
+    <t>Cidade de Maputo</t>
+  </si>
+  <si>
+    <t>Gaza</t>
+  </si>
+  <si>
+    <t>Inhamban</t>
+  </si>
+  <si>
+    <t>Sofala</t>
+  </si>
+  <si>
+    <t>Manica</t>
+  </si>
+  <si>
+    <t>Tete</t>
+  </si>
+  <si>
+    <t>Zambezia</t>
+  </si>
+  <si>
+    <t>Nampula</t>
+  </si>
+  <si>
+    <t>Cabo Delgado</t>
+  </si>
+  <si>
+    <t>Niassa</t>
+  </si>
+  <si>
+    <t>Africa de Sul</t>
+  </si>
+  <si>
+    <t>Swazilandia</t>
+  </si>
+  <si>
+    <t>Outro país Africano</t>
+  </si>
+  <si>
+    <t>Europa</t>
+  </si>
+  <si>
+    <t>Asia</t>
+  </si>
+  <si>
+    <t>Americas</t>
+  </si>
+  <si>
+    <t>movedfromName</t>
+  </si>
+  <si>
+    <t>Especifique o lugar de origem</t>
+  </si>
+  <si>
+    <t>${migrationType} = 'EXTERNAL_INMIGRATION' and ${movedfrom}=18</t>
+  </si>
+  <si>
+    <t>calculate</t>
+  </si>
+  <si>
+    <t>${permId}</t>
+  </si>
+  <si>
+    <t>processedBySync</t>
+  </si>
+  <si>
+    <t>processed by dbsync</t>
   </si>
 </sst>
 </file>
@@ -1888,13 +1981,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:R95"/>
+  <dimension ref="A1:R92"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" zoomScalePageLayoutView="125" workbookViewId="0">
-      <pane xSplit="2" ySplit="1" topLeftCell="M18" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="1" topLeftCell="C23" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="B25" sqref="B25"/>
+      <selection pane="bottomRight" activeCell="C36" sqref="C36"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.875" defaultRowHeight="12"/>
@@ -1922,7 +2015,7 @@
         <v>1</v>
       </c>
       <c r="C1" s="6" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="D1" s="6" t="s">
         <v>17</v>
@@ -2073,7 +2166,7 @@
         <v>26</v>
       </c>
       <c r="C6" s="9" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="D6" s="5" t="s">
         <v>29</v>
@@ -2096,7 +2189,7 @@
         <v>27</v>
       </c>
       <c r="C7" s="5" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="D7" s="5" t="s">
         <v>31</v>
@@ -2119,7 +2212,7 @@
         <v>23</v>
       </c>
       <c r="C8" s="5" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="D8" s="5" t="s">
         <v>25</v>
@@ -2139,16 +2232,16 @@
         <v>21</v>
       </c>
       <c r="B9" s="5" t="s">
-        <v>211</v>
+        <v>205</v>
       </c>
       <c r="C9" s="5" t="s">
-        <v>212</v>
+        <v>206</v>
       </c>
       <c r="D9" s="5" t="s">
-        <v>212</v>
+        <v>206</v>
       </c>
       <c r="E9" s="5" t="s">
-        <v>212</v>
+        <v>206</v>
       </c>
       <c r="J9" s="4"/>
       <c r="N9" s="5" t="b">
@@ -2160,7 +2253,7 @@
         <v>109</v>
       </c>
       <c r="B10" s="5" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="E10" s="5" t="s">
         <v>114</v>
@@ -2175,7 +2268,7 @@
         <v>32</v>
       </c>
       <c r="C11" s="5" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="D11" s="5" t="s">
         <v>34</v>
@@ -2195,16 +2288,16 @@
         <v>21</v>
       </c>
       <c r="B12" s="5" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="C12" s="5" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c r="D12" s="5" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c r="E12" s="5" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c r="J12" s="4"/>
       <c r="N12" s="5" t="b">
@@ -2219,7 +2312,7 @@
         <v>35</v>
       </c>
       <c r="C13" s="5" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c r="D13" s="5" t="s">
         <v>37</v>
@@ -2231,7 +2324,7 @@
         <v>1</v>
       </c>
       <c r="M13" s="5" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="N13" s="5" t="b">
         <v>1</v>
@@ -2245,7 +2338,7 @@
         <v>38</v>
       </c>
       <c r="C14" s="5" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="D14" s="5" t="s">
         <v>39</v>
@@ -2257,7 +2350,7 @@
         <v>1</v>
       </c>
       <c r="M14" s="5" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="N14" s="5" t="b">
         <v>1</v>
@@ -2271,7 +2364,7 @@
         <v>41</v>
       </c>
       <c r="C15" s="5" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="D15" s="5" t="s">
         <v>43</v>
@@ -2283,7 +2376,7 @@
         <v>1</v>
       </c>
       <c r="M15" s="5" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
     </row>
     <row r="16" spans="1:18">
@@ -2294,7 +2387,7 @@
         <v>44</v>
       </c>
       <c r="C16" s="9" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="D16" s="9" t="s">
         <v>46</v>
@@ -2307,18 +2400,18 @@
       <c r="H16" s="2"/>
       <c r="J16" s="4"/>
       <c r="M16" s="5" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
     </row>
     <row r="17" spans="1:14">
       <c r="A17" s="10" t="s">
-        <v>21</v>
+        <v>262</v>
       </c>
       <c r="B17" s="10" t="s">
         <v>47</v>
       </c>
       <c r="C17" s="9" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="D17" s="9" t="s">
         <v>49</v>
@@ -2332,8 +2425,14 @@
       <c r="J17" s="4" t="b">
         <v>1</v>
       </c>
+      <c r="L17" s="5" t="s">
+        <v>263</v>
+      </c>
       <c r="M17" s="5" t="s">
-        <v>162</v>
+        <v>125</v>
+      </c>
+      <c r="N17" s="5" t="b">
+        <v>1</v>
       </c>
     </row>
     <row r="18" spans="1:14">
@@ -2344,7 +2443,7 @@
         <v>51</v>
       </c>
       <c r="C18" s="9" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="D18" s="9" t="s">
         <v>51</v>
@@ -2359,10 +2458,10 @@
         <v>1</v>
       </c>
       <c r="M18" s="5" t="s">
-        <v>127</v>
-      </c>
-    </row>
-    <row r="19" spans="1:14">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="19" spans="1:14" ht="24">
       <c r="A19" s="7" t="s">
         <v>53</v>
       </c>
@@ -2370,7 +2469,7 @@
         <v>54</v>
       </c>
       <c r="C19" s="2" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="D19" s="2" t="s">
         <v>56</v>
@@ -2381,13 +2480,16 @@
       <c r="F19" s="2"/>
       <c r="G19" s="2"/>
       <c r="H19" s="2" t="s">
-        <v>119</v>
+        <v>120</v>
+      </c>
+      <c r="I19" s="5" t="s">
+        <v>214</v>
       </c>
       <c r="J19" s="4" t="b">
         <v>1</v>
       </c>
       <c r="M19" s="5" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
     </row>
     <row r="20" spans="1:14">
@@ -2398,7 +2500,7 @@
         <v>58</v>
       </c>
       <c r="C20" s="2" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="D20" s="2" t="s">
         <v>59</v>
@@ -2413,7 +2515,7 @@
         <v>1</v>
       </c>
       <c r="M20" s="5" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
     </row>
     <row r="21" spans="1:14">
@@ -2437,7 +2539,7 @@
         <v>60</v>
       </c>
       <c r="C22" s="16" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="D22" s="16" t="s">
         <v>62</v>
@@ -2446,10 +2548,10 @@
         <v>61</v>
       </c>
       <c r="H22" s="16" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="I22" s="16" t="s">
-        <v>122</v>
+        <v>215</v>
       </c>
       <c r="J22" s="17" t="b">
         <v>1</v>
@@ -2457,22 +2559,22 @@
     </row>
     <row r="23" spans="1:14" s="16" customFormat="1" ht="36">
       <c r="A23" s="16" t="s">
+        <v>121</v>
+      </c>
+      <c r="B23" s="16" t="s">
+        <v>122</v>
+      </c>
+      <c r="C23" s="16" t="s">
+        <v>164</v>
+      </c>
+      <c r="D23" s="16" t="s">
         <v>123</v>
-      </c>
-      <c r="B23" s="16" t="s">
-        <v>124</v>
-      </c>
-      <c r="C23" s="16" t="s">
-        <v>166</v>
-      </c>
-      <c r="D23" s="16" t="s">
-        <v>125</v>
       </c>
       <c r="J23" s="17" t="b">
         <v>1</v>
       </c>
       <c r="M23" s="16" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
     </row>
     <row r="24" spans="1:14">
@@ -2483,7 +2585,7 @@
         <v>63</v>
       </c>
       <c r="C24" s="2" t="s">
-        <v>232</v>
+        <v>211</v>
       </c>
       <c r="D24" s="2" t="s">
         <v>63</v>
@@ -2498,99 +2600,101 @@
         <v>1</v>
       </c>
       <c r="M24" s="5" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="N24" s="5" t="b">
         <v>1</v>
       </c>
     </row>
-    <row r="25" spans="1:14">
+    <row r="25" spans="1:14" ht="24">
       <c r="A25" s="2" t="s">
-        <v>21</v>
+        <v>222</v>
       </c>
       <c r="B25" s="2" t="s">
-        <v>233</v>
+        <v>221</v>
       </c>
       <c r="C25" s="2" t="s">
-        <v>167</v>
+        <v>220</v>
       </c>
       <c r="D25" s="2" t="s">
-        <v>167</v>
+        <v>220</v>
       </c>
       <c r="E25" s="2" t="s">
-        <v>234</v>
+        <v>220</v>
       </c>
       <c r="F25" s="2"/>
       <c r="G25" s="2"/>
       <c r="H25" s="2"/>
-      <c r="J25" s="4"/>
+      <c r="J25" s="4" t="b">
+        <v>1</v>
+      </c>
       <c r="M25" s="5" t="s">
-        <v>132</v>
-      </c>
-      <c r="N25" s="5" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="26" spans="1:14" ht="13.5" customHeight="1">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="26" spans="1:14">
       <c r="A26" s="2" t="s">
-        <v>65</v>
+        <v>21</v>
       </c>
       <c r="B26" s="2" t="s">
-        <v>66</v>
+        <v>212</v>
       </c>
       <c r="C26" s="2" t="s">
-        <v>168</v>
+        <v>165</v>
       </c>
       <c r="D26" s="2" t="s">
-        <v>66</v>
+        <v>165</v>
       </c>
       <c r="E26" s="2" t="s">
-        <v>67</v>
+        <v>213</v>
       </c>
       <c r="F26" s="2"/>
       <c r="G26" s="2"/>
       <c r="H26" s="2"/>
-      <c r="J26" s="4" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="27" spans="1:14">
+      <c r="J26" s="4"/>
+      <c r="M26" s="5" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="27" spans="1:14" ht="22.5" customHeight="1">
       <c r="A27" s="2" t="s">
-        <v>68</v>
+        <v>222</v>
       </c>
       <c r="B27" s="2" t="s">
-        <v>69</v>
+        <v>238</v>
       </c>
       <c r="C27" s="2" t="s">
-        <v>169</v>
-      </c>
-      <c r="D27" s="11" t="s">
-        <v>71</v>
+        <v>237</v>
+      </c>
+      <c r="D27" s="2" t="s">
+        <v>237</v>
       </c>
       <c r="E27" s="2" t="s">
-        <v>70</v>
-      </c>
-      <c r="F27" s="2"/>
+        <v>237</v>
+      </c>
+      <c r="F27" s="2" t="s">
+        <v>237</v>
+      </c>
       <c r="G27" s="2"/>
       <c r="H27" s="2"/>
       <c r="J27" s="4" t="b">
         <v>1</v>
       </c>
       <c r="M27" s="5" t="s">
-        <v>111</v>
-      </c>
-    </row>
-    <row r="28" spans="1:14">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="28" spans="1:14" ht="13.5" customHeight="1">
       <c r="A28" s="2" t="s">
-        <v>21</v>
+        <v>65</v>
       </c>
       <c r="B28" s="2" t="s">
-        <v>72</v>
+        <v>66</v>
       </c>
       <c r="C28" s="2" t="s">
-        <v>170</v>
-      </c>
-      <c r="D28" s="11" t="s">
+        <v>166</v>
+      </c>
+      <c r="D28" s="2" t="s">
         <v>66</v>
       </c>
       <c r="E28" s="2" t="s">
@@ -2602,25 +2706,22 @@
       <c r="J28" s="4" t="b">
         <v>1</v>
       </c>
-      <c r="M28" s="5" t="s">
-        <v>112</v>
-      </c>
     </row>
     <row r="29" spans="1:14">
       <c r="A29" s="2" t="s">
-        <v>21</v>
+        <v>68</v>
       </c>
       <c r="B29" s="2" t="s">
-        <v>135</v>
+        <v>69</v>
       </c>
       <c r="C29" s="2" t="s">
-        <v>172</v>
-      </c>
-      <c r="D29" s="2" t="s">
-        <v>133</v>
+        <v>167</v>
+      </c>
+      <c r="D29" s="11" t="s">
+        <v>71</v>
       </c>
       <c r="E29" s="2" t="s">
-        <v>133</v>
+        <v>70</v>
       </c>
       <c r="F29" s="2"/>
       <c r="G29" s="2"/>
@@ -2629,195 +2730,171 @@
         <v>1</v>
       </c>
       <c r="M29" s="5" t="s">
-        <v>127</v>
+        <v>111</v>
       </c>
     </row>
     <row r="30" spans="1:14">
-      <c r="A30" s="5" t="s">
-        <v>225</v>
-      </c>
-      <c r="B30" s="5" t="s">
-        <v>219</v>
+      <c r="A30" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="B30" s="2" t="s">
+        <v>72</v>
       </c>
       <c r="C30" s="2" t="s">
-        <v>213</v>
-      </c>
-      <c r="D30" s="2" t="s">
-        <v>213</v>
+        <v>168</v>
+      </c>
+      <c r="D30" s="11" t="s">
+        <v>66</v>
       </c>
       <c r="E30" s="2" t="s">
-        <v>213</v>
+        <v>67</v>
       </c>
       <c r="F30" s="2"/>
       <c r="G30" s="2"/>
       <c r="H30" s="2"/>
-      <c r="J30" s="4"/>
+      <c r="J30" s="4" t="b">
+        <v>1</v>
+      </c>
       <c r="M30" s="5" t="s">
-        <v>127</v>
-      </c>
-    </row>
-    <row r="31" spans="1:14" ht="16.5" customHeight="1">
-      <c r="A31" s="5" t="s">
-        <v>21</v>
-      </c>
-      <c r="B31" s="5" t="s">
-        <v>220</v>
+        <v>112</v>
+      </c>
+    </row>
+    <row r="31" spans="1:14">
+      <c r="A31" s="2" t="s">
+        <v>240</v>
+      </c>
+      <c r="B31" s="2" t="s">
+        <v>133</v>
       </c>
       <c r="C31" s="2" t="s">
-        <v>214</v>
+        <v>239</v>
       </c>
       <c r="D31" s="2" t="s">
-        <v>214</v>
+        <v>131</v>
       </c>
       <c r="E31" s="2" t="s">
-        <v>214</v>
+        <v>131</v>
       </c>
       <c r="F31" s="2"/>
       <c r="G31" s="2"/>
       <c r="H31" s="2"/>
-      <c r="J31" s="4"/>
+      <c r="J31" s="4" t="b">
+        <v>1</v>
+      </c>
       <c r="M31" s="5" t="s">
-        <v>230</v>
+        <v>125</v>
       </c>
     </row>
     <row r="32" spans="1:14">
-      <c r="A32" s="5" t="s">
+      <c r="A32" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="B32" s="5" t="s">
-        <v>221</v>
+      <c r="B32" s="2" t="s">
+        <v>259</v>
       </c>
       <c r="C32" s="2" t="s">
-        <v>215</v>
+        <v>260</v>
       </c>
       <c r="D32" s="2" t="s">
-        <v>215</v>
+        <v>131</v>
       </c>
       <c r="E32" s="2" t="s">
-        <v>215</v>
+        <v>131</v>
       </c>
       <c r="F32" s="2"/>
       <c r="G32" s="2"/>
       <c r="H32" s="2"/>
-      <c r="J32" s="4"/>
+      <c r="J32" s="4" t="b">
+        <v>1</v>
+      </c>
       <c r="M32" s="5" t="s">
-        <v>231</v>
-      </c>
-    </row>
-    <row r="33" spans="1:14">
-      <c r="A33" s="5" t="s">
-        <v>21</v>
-      </c>
-      <c r="B33" s="5" t="s">
-        <v>222</v>
-      </c>
-      <c r="C33" s="2" t="s">
-        <v>216</v>
+        <v>261</v>
+      </c>
+    </row>
+    <row r="33" spans="1:14" ht="24">
+      <c r="A33" s="2" t="s">
+        <v>135</v>
+      </c>
+      <c r="B33" s="2" t="s">
+        <v>134</v>
+      </c>
+      <c r="C33" s="5" t="s">
+        <v>219</v>
       </c>
       <c r="D33" s="2" t="s">
-        <v>216</v>
+        <v>132</v>
       </c>
       <c r="E33" s="2" t="s">
-        <v>216</v>
+        <v>132</v>
       </c>
       <c r="F33" s="2"/>
       <c r="G33" s="2"/>
       <c r="H33" s="2"/>
-      <c r="J33" s="4"/>
-      <c r="M33" s="5" t="s">
-        <v>231</v>
-      </c>
-    </row>
-    <row r="34" spans="1:14" ht="11.25" customHeight="1">
+      <c r="J33" s="4" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="34" spans="1:14">
       <c r="A34" s="5" t="s">
-        <v>21</v>
+        <v>140</v>
       </c>
       <c r="B34" s="5" t="s">
-        <v>223</v>
-      </c>
-      <c r="C34" s="2" t="s">
-        <v>217</v>
-      </c>
-      <c r="D34" s="2" t="s">
-        <v>217</v>
-      </c>
-      <c r="E34" s="2" t="s">
-        <v>217</v>
-      </c>
-      <c r="F34" s="2"/>
-      <c r="G34" s="2"/>
-      <c r="H34" s="2"/>
-      <c r="J34" s="4"/>
-      <c r="M34" s="5" t="s">
-        <v>231</v>
+        <v>141</v>
+      </c>
+      <c r="C34" s="5" t="s">
+        <v>142</v>
+      </c>
+      <c r="D34" s="5" t="s">
+        <v>142</v>
+      </c>
+      <c r="E34" s="5" t="s">
+        <v>142</v>
+      </c>
+      <c r="N34" s="5" t="b">
+        <v>1</v>
       </c>
     </row>
     <row r="35" spans="1:14">
       <c r="A35" s="5" t="s">
-        <v>21</v>
+        <v>140</v>
       </c>
       <c r="B35" s="5" t="s">
-        <v>224</v>
-      </c>
-      <c r="C35" s="2" t="s">
-        <v>218</v>
-      </c>
-      <c r="D35" s="2" t="s">
-        <v>218</v>
-      </c>
-      <c r="E35" s="2" t="s">
-        <v>218</v>
-      </c>
-      <c r="F35" s="2"/>
-      <c r="G35" s="2"/>
-      <c r="H35" s="2"/>
-      <c r="J35" s="4"/>
-      <c r="M35" s="5" t="s">
-        <v>231</v>
-      </c>
-    </row>
-    <row r="36" spans="1:14" ht="24">
-      <c r="A36" s="2" t="s">
-        <v>137</v>
-      </c>
-      <c r="B36" s="2" t="s">
-        <v>136</v>
-      </c>
-      <c r="C36" s="5" t="s">
-        <v>171</v>
-      </c>
-      <c r="D36" s="2" t="s">
-        <v>134</v>
-      </c>
-      <c r="E36" s="2" t="s">
-        <v>134</v>
-      </c>
+        <v>264</v>
+      </c>
+      <c r="C35" s="5" t="s">
+        <v>265</v>
+      </c>
+      <c r="D35" s="5" t="s">
+        <v>142</v>
+      </c>
+      <c r="E35" s="5" t="s">
+        <v>142</v>
+      </c>
+      <c r="N35" s="5" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="36" spans="1:14">
+      <c r="A36" s="2"/>
+      <c r="B36" s="2"/>
+      <c r="C36" s="2"/>
+      <c r="D36" s="2"/>
+      <c r="E36" s="2"/>
       <c r="F36" s="2"/>
       <c r="G36" s="2"/>
       <c r="H36" s="2"/>
-      <c r="J36" s="4" t="b">
-        <v>1</v>
-      </c>
+      <c r="J36" s="3"/>
     </row>
     <row r="37" spans="1:14">
-      <c r="A37" s="5" t="s">
-        <v>142</v>
-      </c>
-      <c r="B37" s="5" t="s">
-        <v>143</v>
-      </c>
-      <c r="C37" s="5" t="s">
-        <v>144</v>
-      </c>
-      <c r="D37" s="5" t="s">
-        <v>144</v>
-      </c>
-      <c r="E37" s="5" t="s">
-        <v>144</v>
-      </c>
-      <c r="N37" s="5" t="b">
-        <v>1</v>
-      </c>
+      <c r="A37" s="2"/>
+      <c r="B37" s="2"/>
+      <c r="C37" s="2"/>
+      <c r="D37" s="2"/>
+      <c r="E37" s="2"/>
+      <c r="F37" s="2"/>
+      <c r="G37" s="2"/>
+      <c r="H37" s="2"/>
+      <c r="J37" s="3"/>
     </row>
     <row r="38" spans="1:14">
       <c r="A38" s="2"/>
@@ -2828,6 +2905,7 @@
       <c r="F38" s="2"/>
       <c r="G38" s="2"/>
       <c r="H38" s="2"/>
+      <c r="J38" s="3"/>
     </row>
     <row r="39" spans="1:14">
       <c r="A39" s="2"/>
@@ -2838,7 +2916,6 @@
       <c r="F39" s="2"/>
       <c r="G39" s="2"/>
       <c r="H39" s="2"/>
-      <c r="J39" s="3"/>
     </row>
     <row r="40" spans="1:14">
       <c r="A40" s="2"/>
@@ -2851,46 +2928,23 @@
       <c r="H40" s="2"/>
       <c r="J40" s="3"/>
     </row>
-    <row r="41" spans="1:14">
-      <c r="A41" s="2"/>
-      <c r="B41" s="2"/>
-      <c r="C41" s="2"/>
-      <c r="D41" s="2"/>
-      <c r="E41" s="2"/>
-      <c r="F41" s="2"/>
-      <c r="G41" s="2"/>
-      <c r="H41" s="2"/>
-      <c r="J41" s="3"/>
-    </row>
-    <row r="42" spans="1:14">
-      <c r="A42" s="2"/>
-      <c r="B42" s="2"/>
-      <c r="C42" s="2"/>
-      <c r="D42" s="2"/>
-      <c r="E42" s="2"/>
-      <c r="F42" s="2"/>
-      <c r="G42" s="2"/>
-      <c r="H42" s="2"/>
-    </row>
-    <row r="43" spans="1:14">
-      <c r="A43" s="2"/>
-      <c r="B43" s="2"/>
-      <c r="C43" s="2"/>
-      <c r="D43" s="2"/>
-      <c r="E43" s="2"/>
-      <c r="F43" s="2"/>
-      <c r="G43" s="2"/>
-      <c r="H43" s="2"/>
-      <c r="J43" s="3"/>
-    </row>
-    <row r="47" spans="1:14">
-      <c r="J47" s="3"/>
-    </row>
-    <row r="48" spans="1:14">
-      <c r="J48" s="3"/>
-    </row>
-    <row r="56" spans="10:10">
-      <c r="J56" s="3"/>
+    <row r="44" spans="1:14">
+      <c r="J44" s="3"/>
+    </row>
+    <row r="45" spans="1:14">
+      <c r="J45" s="3"/>
+    </row>
+    <row r="53" spans="10:10">
+      <c r="J53" s="3"/>
+    </row>
+    <row r="61" spans="10:10">
+      <c r="J61" s="3"/>
+    </row>
+    <row r="62" spans="10:10">
+      <c r="J62" s="3"/>
+    </row>
+    <row r="63" spans="10:10">
+      <c r="J63" s="3"/>
     </row>
     <row r="64" spans="10:10">
       <c r="J64" s="3"/>
@@ -2898,14 +2952,14 @@
     <row r="65" spans="10:10">
       <c r="J65" s="3"/>
     </row>
-    <row r="66" spans="10:10">
-      <c r="J66" s="3"/>
-    </row>
-    <row r="67" spans="10:10">
-      <c r="J67" s="3"/>
-    </row>
-    <row r="68" spans="10:10">
-      <c r="J68" s="3"/>
+    <row r="82" spans="1:10">
+      <c r="J82" s="3"/>
+    </row>
+    <row r="83" spans="1:10">
+      <c r="J83" s="3"/>
+    </row>
+    <row r="84" spans="1:10">
+      <c r="J84" s="3"/>
     </row>
     <row r="85" spans="1:10">
       <c r="J85" s="3"/>
@@ -2914,31 +2968,22 @@
       <c r="J86" s="3"/>
     </row>
     <row r="87" spans="1:10">
+      <c r="A87" s="3"/>
       <c r="J87" s="3"/>
     </row>
     <row r="88" spans="1:10">
+      <c r="A88" s="3"/>
       <c r="J88" s="3"/>
     </row>
     <row r="89" spans="1:10">
+      <c r="A89" s="3"/>
       <c r="J89" s="3"/>
     </row>
     <row r="90" spans="1:10">
-      <c r="A90" s="3"/>
       <c r="J90" s="3"/>
     </row>
-    <row r="91" spans="1:10">
-      <c r="A91" s="3"/>
-      <c r="J91" s="3"/>
-    </row>
     <row r="92" spans="1:10">
-      <c r="A92" s="3"/>
       <c r="J92" s="3"/>
-    </row>
-    <row r="93" spans="1:10">
-      <c r="J93" s="3"/>
-    </row>
-    <row r="95" spans="1:10">
-      <c r="J95" s="3"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -2950,8 +2995,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:E71"/>
   <sheetViews>
-    <sheetView topLeftCell="A4" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
-      <selection activeCell="A29" sqref="A29:XFD30"/>
+    <sheetView topLeftCell="A45" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
+      <selection activeCell="C46" sqref="C46:E64"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.875" defaultRowHeight="12"/>
@@ -2970,7 +3015,7 @@
         <v>1</v>
       </c>
       <c r="C1" s="6" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="D1" s="6" t="s">
         <v>18</v>
@@ -2987,7 +3032,7 @@
         <v>73</v>
       </c>
       <c r="C2" s="14" t="s">
-        <v>173</v>
+        <v>169</v>
       </c>
       <c r="D2" s="14" t="s">
         <v>75</v>
@@ -3004,7 +3049,7 @@
         <v>74</v>
       </c>
       <c r="C3" s="14" t="s">
-        <v>174</v>
+        <v>170</v>
       </c>
       <c r="D3" s="14" t="s">
         <v>76</v>
@@ -3021,7 +3066,7 @@
         <v>1</v>
       </c>
       <c r="C4" s="14" t="s">
-        <v>175</v>
+        <v>171</v>
       </c>
       <c r="D4" s="14" t="s">
         <v>81</v>
@@ -3038,7 +3083,7 @@
         <v>2</v>
       </c>
       <c r="C5" s="14" t="s">
-        <v>176</v>
+        <v>172</v>
       </c>
       <c r="D5" s="14" t="s">
         <v>82</v>
@@ -3052,16 +3097,16 @@
         <v>66</v>
       </c>
       <c r="B6" s="13" t="s">
-        <v>180</v>
+        <v>174</v>
       </c>
       <c r="C6" s="14" t="s">
-        <v>181</v>
+        <v>175</v>
       </c>
       <c r="D6" s="14" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="E6" s="14" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
     </row>
     <row r="7" spans="1:5">
@@ -3069,16 +3114,16 @@
         <v>66</v>
       </c>
       <c r="B7" s="13" t="s">
-        <v>182</v>
+        <v>176</v>
       </c>
       <c r="C7" s="14" t="s">
-        <v>183</v>
+        <v>177</v>
       </c>
       <c r="D7" s="14" t="s">
         <v>98</v>
       </c>
       <c r="E7" s="14" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
     </row>
     <row r="8" spans="1:5">
@@ -3086,10 +3131,10 @@
         <v>66</v>
       </c>
       <c r="B8" s="13" t="s">
-        <v>184</v>
+        <v>178</v>
       </c>
       <c r="C8" s="14" t="s">
-        <v>185</v>
+        <v>179</v>
       </c>
       <c r="D8" s="14" t="s">
         <v>99</v>
@@ -3103,16 +3148,16 @@
         <v>66</v>
       </c>
       <c r="B9" s="13" t="s">
-        <v>186</v>
+        <v>180</v>
       </c>
       <c r="C9" s="14" t="s">
-        <v>187</v>
+        <v>181</v>
       </c>
       <c r="D9" s="13" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="E9" s="13" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
     </row>
     <row r="10" spans="1:5">
@@ -3120,10 +3165,10 @@
         <v>66</v>
       </c>
       <c r="B10" s="13" t="s">
-        <v>188</v>
+        <v>182</v>
       </c>
       <c r="C10" s="14" t="s">
-        <v>189</v>
+        <v>183</v>
       </c>
       <c r="D10" s="14" t="s">
         <v>100</v>
@@ -3137,10 +3182,10 @@
         <v>66</v>
       </c>
       <c r="B11" s="13" t="s">
-        <v>190</v>
+        <v>184</v>
       </c>
       <c r="C11" s="14" t="s">
-        <v>191</v>
+        <v>185</v>
       </c>
       <c r="D11" s="14" t="s">
         <v>101</v>
@@ -3154,16 +3199,16 @@
         <v>66</v>
       </c>
       <c r="B12" s="13" t="s">
-        <v>192</v>
+        <v>186</v>
       </c>
       <c r="C12" s="14" t="s">
-        <v>193</v>
+        <v>187</v>
       </c>
       <c r="D12" s="14" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="E12" s="14" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
     </row>
     <row r="13" spans="1:5">
@@ -3171,10 +3216,10 @@
         <v>66</v>
       </c>
       <c r="B13" s="13" t="s">
-        <v>194</v>
+        <v>188</v>
       </c>
       <c r="C13" s="14" t="s">
-        <v>195</v>
+        <v>189</v>
       </c>
       <c r="D13" s="14" t="s">
         <v>102</v>
@@ -3188,16 +3233,16 @@
         <v>66</v>
       </c>
       <c r="B14" s="13" t="s">
-        <v>196</v>
+        <v>190</v>
       </c>
       <c r="C14" s="14" t="s">
-        <v>197</v>
+        <v>191</v>
       </c>
       <c r="D14" s="14" t="s">
-        <v>197</v>
+        <v>191</v>
       </c>
       <c r="E14" s="14" t="s">
-        <v>197</v>
+        <v>191</v>
       </c>
     </row>
     <row r="15" spans="1:5">
@@ -3205,16 +3250,16 @@
         <v>66</v>
       </c>
       <c r="B15" s="13" t="s">
-        <v>198</v>
+        <v>192</v>
       </c>
       <c r="C15" s="14" t="s">
-        <v>199</v>
+        <v>193</v>
       </c>
       <c r="D15" s="14" t="s">
-        <v>199</v>
+        <v>193</v>
       </c>
       <c r="E15" s="14" t="s">
-        <v>199</v>
+        <v>193</v>
       </c>
     </row>
     <row r="16" spans="1:5">
@@ -3222,16 +3267,16 @@
         <v>66</v>
       </c>
       <c r="B16" s="13" t="s">
-        <v>200</v>
+        <v>194</v>
       </c>
       <c r="C16" s="14" t="s">
-        <v>201</v>
+        <v>195</v>
       </c>
       <c r="D16" s="14" t="s">
-        <v>201</v>
+        <v>195</v>
       </c>
       <c r="E16" s="14" t="s">
-        <v>201</v>
+        <v>195</v>
       </c>
     </row>
     <row r="17" spans="1:5">
@@ -3239,16 +3284,16 @@
         <v>66</v>
       </c>
       <c r="B17" s="13" t="s">
-        <v>202</v>
+        <v>196</v>
       </c>
       <c r="C17" s="14" t="s">
-        <v>203</v>
+        <v>197</v>
       </c>
       <c r="D17" s="14" t="s">
-        <v>203</v>
+        <v>197</v>
       </c>
       <c r="E17" s="14" t="s">
-        <v>203</v>
+        <v>197</v>
       </c>
     </row>
     <row r="18" spans="1:5">
@@ -3256,16 +3301,16 @@
         <v>66</v>
       </c>
       <c r="B18" s="13" t="s">
-        <v>204</v>
+        <v>198</v>
       </c>
       <c r="C18" s="14" t="s">
-        <v>205</v>
+        <v>199</v>
       </c>
       <c r="D18" s="14" t="s">
-        <v>205</v>
+        <v>199</v>
       </c>
       <c r="E18" s="14" t="s">
-        <v>205</v>
+        <v>199</v>
       </c>
     </row>
     <row r="19" spans="1:5">
@@ -3273,16 +3318,16 @@
         <v>66</v>
       </c>
       <c r="B19" s="13" t="s">
-        <v>206</v>
+        <v>200</v>
       </c>
       <c r="C19" s="14" t="s">
-        <v>179</v>
+        <v>173</v>
       </c>
       <c r="D19" s="14" t="s">
-        <v>179</v>
+        <v>173</v>
       </c>
       <c r="E19" s="14" t="s">
-        <v>179</v>
+        <v>173</v>
       </c>
     </row>
     <row r="20" spans="1:5">
@@ -3293,7 +3338,7 @@
         <v>86</v>
       </c>
       <c r="C20" s="14" t="s">
-        <v>183</v>
+        <v>177</v>
       </c>
       <c r="D20" s="14" t="s">
         <v>103</v>
@@ -3310,7 +3355,7 @@
         <v>87</v>
       </c>
       <c r="C21" s="14" t="s">
-        <v>207</v>
+        <v>201</v>
       </c>
       <c r="D21" s="14" t="s">
         <v>104</v>
@@ -3327,7 +3372,7 @@
         <v>88</v>
       </c>
       <c r="C22" s="14" t="s">
-        <v>187</v>
+        <v>181</v>
       </c>
       <c r="D22" s="14" t="s">
         <v>105</v>
@@ -3344,7 +3389,7 @@
         <v>89</v>
       </c>
       <c r="C23" s="14" t="s">
-        <v>208</v>
+        <v>202</v>
       </c>
       <c r="D23" s="14" t="s">
         <v>106</v>
@@ -3361,7 +3406,7 @@
         <v>90</v>
       </c>
       <c r="C24" s="14" t="s">
-        <v>209</v>
+        <v>203</v>
       </c>
       <c r="D24" s="14" t="s">
         <v>107</v>
@@ -3378,7 +3423,7 @@
         <v>888</v>
       </c>
       <c r="C25" s="14" t="s">
-        <v>210</v>
+        <v>204</v>
       </c>
       <c r="D25" s="14" t="s">
         <v>108</v>
@@ -3389,330 +3434,669 @@
     </row>
     <row r="26" spans="1:5">
       <c r="A26" s="12" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="B26" s="13">
         <v>1</v>
       </c>
       <c r="C26" s="14" t="s">
-        <v>177</v>
+        <v>216</v>
       </c>
       <c r="D26" s="14" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="E26" s="14" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
     </row>
     <row r="27" spans="1:5">
       <c r="A27" s="12" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="B27" s="13">
         <v>2</v>
       </c>
       <c r="C27" s="14" t="s">
-        <v>178</v>
+        <v>217</v>
       </c>
       <c r="D27" s="14" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="E27" s="14" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
     </row>
     <row r="28" spans="1:5">
       <c r="A28" s="12" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="B28" s="13">
         <v>3</v>
       </c>
       <c r="C28" s="14" t="s">
-        <v>179</v>
+        <v>218</v>
       </c>
       <c r="D28" s="14" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="E28" s="14" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
     </row>
     <row r="29" spans="1:5">
       <c r="A29" s="12" t="s">
-        <v>226</v>
+        <v>207</v>
       </c>
       <c r="B29" s="13" t="s">
-        <v>227</v>
+        <v>208</v>
       </c>
       <c r="C29" s="14" t="s">
-        <v>228</v>
+        <v>209</v>
       </c>
       <c r="D29" s="14" t="s">
-        <v>228</v>
+        <v>209</v>
       </c>
       <c r="E29" s="14" t="s">
-        <v>228</v>
+        <v>209</v>
       </c>
     </row>
     <row r="30" spans="1:5">
       <c r="A30" s="12" t="s">
-        <v>226</v>
+        <v>207</v>
       </c>
       <c r="B30" s="13" t="s">
         <v>85</v>
       </c>
       <c r="C30" s="14" t="s">
+        <v>210</v>
+      </c>
+      <c r="D30" s="14" t="s">
+        <v>210</v>
+      </c>
+      <c r="E30" s="14" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="31" spans="1:5" ht="24">
+      <c r="A31" s="12" t="s">
+        <v>223</v>
+      </c>
+      <c r="B31" s="13">
+        <v>1</v>
+      </c>
+      <c r="C31" s="14" t="s">
+        <v>224</v>
+      </c>
+      <c r="D31" s="14" t="s">
+        <v>224</v>
+      </c>
+      <c r="E31" s="14" t="s">
+        <v>224</v>
+      </c>
+    </row>
+    <row r="32" spans="1:5" ht="24">
+      <c r="A32" s="12" t="s">
+        <v>223</v>
+      </c>
+      <c r="B32" s="13">
+        <v>2</v>
+      </c>
+      <c r="C32" s="14" t="s">
+        <v>225</v>
+      </c>
+      <c r="D32" s="14" t="s">
+        <v>225</v>
+      </c>
+      <c r="E32" s="14" t="s">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="33" spans="1:5" ht="24">
+      <c r="A33" s="12" t="s">
+        <v>223</v>
+      </c>
+      <c r="B33" s="13">
+        <v>3</v>
+      </c>
+      <c r="C33" s="14" t="s">
+        <v>226</v>
+      </c>
+      <c r="D33" s="14" t="s">
+        <v>226</v>
+      </c>
+      <c r="E33" s="14" t="s">
+        <v>226</v>
+      </c>
+    </row>
+    <row r="34" spans="1:5" ht="24">
+      <c r="A34" s="12" t="s">
+        <v>223</v>
+      </c>
+      <c r="B34" s="13">
+        <v>4</v>
+      </c>
+      <c r="C34" s="14" t="s">
+        <v>227</v>
+      </c>
+      <c r="D34" s="14" t="s">
+        <v>227</v>
+      </c>
+      <c r="E34" s="14" t="s">
+        <v>227</v>
+      </c>
+    </row>
+    <row r="35" spans="1:5" ht="24">
+      <c r="A35" s="12" t="s">
+        <v>223</v>
+      </c>
+      <c r="B35" s="13">
+        <v>5</v>
+      </c>
+      <c r="C35" s="14" t="s">
+        <v>228</v>
+      </c>
+      <c r="D35" s="14" t="s">
+        <v>228</v>
+      </c>
+      <c r="E35" s="14" t="s">
+        <v>228</v>
+      </c>
+    </row>
+    <row r="36" spans="1:5" ht="24">
+      <c r="A36" s="12" t="s">
+        <v>223</v>
+      </c>
+      <c r="B36" s="13">
+        <v>6</v>
+      </c>
+      <c r="C36" s="14" t="s">
         <v>229</v>
       </c>
-      <c r="D30" s="14" t="s">
+      <c r="D36" s="14" t="s">
         <v>229</v>
       </c>
-      <c r="E30" s="14" t="s">
+      <c r="E36" s="14" t="s">
         <v>229</v>
       </c>
     </row>
-    <row r="31" spans="1:5">
-      <c r="A31" s="12"/>
-      <c r="B31" s="13"/>
-      <c r="C31" s="14"/>
-      <c r="D31" s="14"/>
-      <c r="E31" s="14"/>
-    </row>
-    <row r="32" spans="1:5">
-      <c r="A32" s="12"/>
-      <c r="B32" s="13"/>
-      <c r="C32" s="14"/>
-      <c r="D32" s="14"/>
-      <c r="E32" s="14"/>
-    </row>
-    <row r="33" spans="1:5">
-      <c r="A33" s="12"/>
-      <c r="B33" s="13"/>
-      <c r="C33" s="14"/>
-      <c r="D33" s="14"/>
-      <c r="E33" s="14"/>
-    </row>
-    <row r="34" spans="1:5">
-      <c r="A34" s="12"/>
-      <c r="B34" s="13"/>
-      <c r="C34" s="14"/>
-      <c r="D34" s="14"/>
-      <c r="E34" s="14"/>
-    </row>
-    <row r="35" spans="1:5">
-      <c r="A35" s="12"/>
-      <c r="B35" s="13"/>
-      <c r="C35" s="14"/>
-      <c r="D35" s="14"/>
-      <c r="E35" s="14"/>
-    </row>
-    <row r="36" spans="1:5">
-      <c r="A36" s="12"/>
-      <c r="B36" s="13"/>
-      <c r="C36" s="14"/>
-      <c r="D36" s="14"/>
-      <c r="E36" s="14"/>
-    </row>
-    <row r="37" spans="1:5">
-      <c r="A37" s="12"/>
-      <c r="B37" s="13"/>
-      <c r="C37" s="14"/>
-      <c r="D37" s="14"/>
-      <c r="E37" s="14"/>
-    </row>
-    <row r="38" spans="1:5">
-      <c r="A38" s="12"/>
-      <c r="B38" s="13"/>
-      <c r="C38" s="14"/>
-      <c r="D38" s="14"/>
-      <c r="E38" s="14"/>
-    </row>
-    <row r="39" spans="1:5">
-      <c r="A39" s="12"/>
-      <c r="B39" s="13"/>
-      <c r="C39" s="14"/>
-      <c r="D39" s="14"/>
-      <c r="E39" s="14"/>
-    </row>
-    <row r="40" spans="1:5">
-      <c r="A40" s="12"/>
-      <c r="B40" s="13"/>
-      <c r="C40" s="14"/>
-      <c r="D40" s="14"/>
-      <c r="E40" s="14"/>
-    </row>
-    <row r="41" spans="1:5">
-      <c r="A41" s="12"/>
-      <c r="B41" s="13"/>
-      <c r="C41" s="14"/>
-      <c r="D41" s="14"/>
-      <c r="E41" s="14"/>
-    </row>
-    <row r="42" spans="1:5">
-      <c r="A42" s="12"/>
-      <c r="B42" s="13"/>
-      <c r="C42" s="14"/>
-      <c r="D42" s="14"/>
-      <c r="E42" s="14"/>
-    </row>
-    <row r="43" spans="1:5">
-      <c r="A43" s="12"/>
-      <c r="B43" s="13"/>
-      <c r="C43" s="14"/>
-      <c r="D43" s="14"/>
-      <c r="E43" s="14"/>
-    </row>
-    <row r="44" spans="1:5">
-      <c r="A44" s="12"/>
-      <c r="B44" s="13"/>
-      <c r="C44" s="14"/>
-      <c r="D44" s="14"/>
-      <c r="E44" s="14"/>
-    </row>
-    <row r="45" spans="1:5">
-      <c r="A45" s="12"/>
-      <c r="B45" s="13"/>
-      <c r="C45" s="14"/>
-      <c r="D45" s="14"/>
-      <c r="E45" s="14"/>
+    <row r="37" spans="1:5" ht="24">
+      <c r="A37" s="12" t="s">
+        <v>223</v>
+      </c>
+      <c r="B37" s="13">
+        <v>7</v>
+      </c>
+      <c r="C37" s="14" t="s">
+        <v>230</v>
+      </c>
+      <c r="D37" s="14" t="s">
+        <v>230</v>
+      </c>
+      <c r="E37" s="14" t="s">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="38" spans="1:5" ht="24">
+      <c r="A38" s="12" t="s">
+        <v>223</v>
+      </c>
+      <c r="B38" s="13">
+        <v>8</v>
+      </c>
+      <c r="C38" s="14" t="s">
+        <v>231</v>
+      </c>
+      <c r="D38" s="14" t="s">
+        <v>231</v>
+      </c>
+      <c r="E38" s="14" t="s">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="39" spans="1:5" ht="24">
+      <c r="A39" s="12" t="s">
+        <v>223</v>
+      </c>
+      <c r="B39" s="13">
+        <v>9</v>
+      </c>
+      <c r="C39" s="14" t="s">
+        <v>232</v>
+      </c>
+      <c r="D39" s="14" t="s">
+        <v>232</v>
+      </c>
+      <c r="E39" s="14" t="s">
+        <v>232</v>
+      </c>
+    </row>
+    <row r="40" spans="1:5" ht="24">
+      <c r="A40" s="12" t="s">
+        <v>223</v>
+      </c>
+      <c r="B40" s="13">
+        <v>10</v>
+      </c>
+      <c r="C40" s="14" t="s">
+        <v>233</v>
+      </c>
+      <c r="D40" s="14" t="s">
+        <v>233</v>
+      </c>
+      <c r="E40" s="14" t="s">
+        <v>233</v>
+      </c>
+    </row>
+    <row r="41" spans="1:5" ht="24">
+      <c r="A41" s="12" t="s">
+        <v>223</v>
+      </c>
+      <c r="B41" s="13">
+        <v>11</v>
+      </c>
+      <c r="C41" s="14" t="s">
+        <v>234</v>
+      </c>
+      <c r="D41" s="14" t="s">
+        <v>234</v>
+      </c>
+      <c r="E41" s="14" t="s">
+        <v>234</v>
+      </c>
+    </row>
+    <row r="42" spans="1:5" ht="24">
+      <c r="A42" s="12" t="s">
+        <v>223</v>
+      </c>
+      <c r="B42" s="13">
+        <v>12</v>
+      </c>
+      <c r="C42" s="14" t="s">
+        <v>235</v>
+      </c>
+      <c r="D42" s="14" t="s">
+        <v>235</v>
+      </c>
+      <c r="E42" s="14" t="s">
+        <v>235</v>
+      </c>
+    </row>
+    <row r="43" spans="1:5" ht="24">
+      <c r="A43" s="12" t="s">
+        <v>223</v>
+      </c>
+      <c r="B43" s="13">
+        <v>13</v>
+      </c>
+      <c r="C43" s="14" t="s">
+        <v>236</v>
+      </c>
+      <c r="D43" s="14" t="s">
+        <v>236</v>
+      </c>
+      <c r="E43" s="14" t="s">
+        <v>236</v>
+      </c>
+    </row>
+    <row r="44" spans="1:5" ht="24">
+      <c r="A44" s="12" t="s">
+        <v>223</v>
+      </c>
+      <c r="B44" s="13">
+        <v>14</v>
+      </c>
+      <c r="C44" s="14" t="s">
+        <v>199</v>
+      </c>
+      <c r="D44" s="14" t="s">
+        <v>199</v>
+      </c>
+      <c r="E44" s="14" t="s">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="45" spans="1:5" ht="24">
+      <c r="A45" s="12" t="s">
+        <v>223</v>
+      </c>
+      <c r="B45" s="13">
+        <v>88</v>
+      </c>
+      <c r="C45" s="14" t="s">
+        <v>173</v>
+      </c>
+      <c r="D45" s="14" t="s">
+        <v>173</v>
+      </c>
+      <c r="E45" s="14" t="s">
+        <v>173</v>
+      </c>
     </row>
     <row r="46" spans="1:5" s="15" customFormat="1">
-      <c r="B46" s="13"/>
-      <c r="C46" s="14"/>
-      <c r="D46" s="14"/>
-      <c r="E46" s="14"/>
+      <c r="A46" s="15" t="s">
+        <v>241</v>
+      </c>
+      <c r="B46" s="13">
+        <v>1</v>
+      </c>
+      <c r="C46" s="14" t="s">
+        <v>242</v>
+      </c>
+      <c r="D46" s="14" t="s">
+        <v>242</v>
+      </c>
+      <c r="E46" s="14" t="s">
+        <v>242</v>
+      </c>
     </row>
     <row r="47" spans="1:5">
-      <c r="A47" s="15"/>
-      <c r="B47" s="13"/>
-      <c r="C47" s="14"/>
-      <c r="D47" s="14"/>
-      <c r="E47" s="14"/>
+      <c r="A47" s="15" t="s">
+        <v>241</v>
+      </c>
+      <c r="B47" s="13">
+        <v>2</v>
+      </c>
+      <c r="C47" s="14" t="s">
+        <v>243</v>
+      </c>
+      <c r="D47" s="14" t="s">
+        <v>243</v>
+      </c>
+      <c r="E47" s="14" t="s">
+        <v>243</v>
+      </c>
     </row>
     <row r="48" spans="1:5">
-      <c r="A48" s="15"/>
-      <c r="B48" s="13"/>
-      <c r="C48" s="14"/>
-      <c r="D48" s="14"/>
-      <c r="E48" s="14"/>
+      <c r="A48" s="15" t="s">
+        <v>241</v>
+      </c>
+      <c r="B48" s="13">
+        <v>3</v>
+      </c>
+      <c r="C48" s="14" t="s">
+        <v>244</v>
+      </c>
+      <c r="D48" s="14" t="s">
+        <v>244</v>
+      </c>
+      <c r="E48" s="14" t="s">
+        <v>244</v>
+      </c>
     </row>
     <row r="49" spans="1:5">
-      <c r="A49" s="15"/>
-      <c r="B49" s="13"/>
-      <c r="C49" s="14"/>
-      <c r="D49" s="14"/>
-      <c r="E49" s="14"/>
+      <c r="A49" s="15" t="s">
+        <v>241</v>
+      </c>
+      <c r="B49" s="13">
+        <v>4</v>
+      </c>
+      <c r="C49" s="14" t="s">
+        <v>245</v>
+      </c>
+      <c r="D49" s="14" t="s">
+        <v>245</v>
+      </c>
+      <c r="E49" s="14" t="s">
+        <v>245</v>
+      </c>
     </row>
     <row r="50" spans="1:5">
-      <c r="A50" s="15"/>
-      <c r="B50" s="13"/>
-      <c r="C50" s="14"/>
-      <c r="D50" s="14"/>
-      <c r="E50" s="14"/>
+      <c r="A50" s="15" t="s">
+        <v>241</v>
+      </c>
+      <c r="B50" s="13">
+        <v>5</v>
+      </c>
+      <c r="C50" s="14" t="s">
+        <v>246</v>
+      </c>
+      <c r="D50" s="14" t="s">
+        <v>246</v>
+      </c>
+      <c r="E50" s="14" t="s">
+        <v>246</v>
+      </c>
     </row>
     <row r="51" spans="1:5">
-      <c r="A51" s="15"/>
-      <c r="B51" s="13"/>
-      <c r="C51" s="14"/>
-      <c r="D51" s="14"/>
-      <c r="E51" s="14"/>
+      <c r="A51" s="15" t="s">
+        <v>241</v>
+      </c>
+      <c r="B51" s="13">
+        <v>6</v>
+      </c>
+      <c r="C51" s="14" t="s">
+        <v>247</v>
+      </c>
+      <c r="D51" s="14" t="s">
+        <v>247</v>
+      </c>
+      <c r="E51" s="14" t="s">
+        <v>247</v>
+      </c>
     </row>
     <row r="52" spans="1:5">
-      <c r="A52" s="15"/>
-      <c r="B52" s="13"/>
-      <c r="C52" s="14"/>
-      <c r="D52" s="14"/>
-      <c r="E52" s="14"/>
+      <c r="A52" s="15" t="s">
+        <v>241</v>
+      </c>
+      <c r="B52" s="13">
+        <v>7</v>
+      </c>
+      <c r="C52" s="14" t="s">
+        <v>248</v>
+      </c>
+      <c r="D52" s="14" t="s">
+        <v>248</v>
+      </c>
+      <c r="E52" s="14" t="s">
+        <v>248</v>
+      </c>
     </row>
     <row r="53" spans="1:5">
-      <c r="A53" s="15"/>
-      <c r="B53" s="13"/>
-      <c r="C53" s="14"/>
-      <c r="D53" s="14"/>
-      <c r="E53" s="14"/>
+      <c r="A53" s="15" t="s">
+        <v>241</v>
+      </c>
+      <c r="B53" s="13">
+        <v>8</v>
+      </c>
+      <c r="C53" s="14" t="s">
+        <v>249</v>
+      </c>
+      <c r="D53" s="14" t="s">
+        <v>249</v>
+      </c>
+      <c r="E53" s="14" t="s">
+        <v>249</v>
+      </c>
     </row>
     <row r="54" spans="1:5">
-      <c r="A54" s="15"/>
-      <c r="B54" s="13"/>
-      <c r="C54" s="14"/>
-      <c r="D54" s="14"/>
-      <c r="E54" s="14"/>
+      <c r="A54" s="15" t="s">
+        <v>241</v>
+      </c>
+      <c r="B54" s="13">
+        <v>9</v>
+      </c>
+      <c r="C54" s="14" t="s">
+        <v>250</v>
+      </c>
+      <c r="D54" s="14" t="s">
+        <v>250</v>
+      </c>
+      <c r="E54" s="14" t="s">
+        <v>250</v>
+      </c>
     </row>
     <row r="55" spans="1:5">
-      <c r="A55" s="15"/>
-      <c r="B55" s="13"/>
-      <c r="C55" s="14"/>
-      <c r="D55" s="14"/>
-      <c r="E55" s="14"/>
+      <c r="A55" s="15" t="s">
+        <v>241</v>
+      </c>
+      <c r="B55" s="13">
+        <v>10</v>
+      </c>
+      <c r="C55" s="14" t="s">
+        <v>251</v>
+      </c>
+      <c r="D55" s="14" t="s">
+        <v>251</v>
+      </c>
+      <c r="E55" s="14" t="s">
+        <v>251</v>
+      </c>
     </row>
     <row r="56" spans="1:5">
-      <c r="A56" s="15"/>
-      <c r="B56" s="13"/>
-      <c r="C56" s="14"/>
-      <c r="D56" s="14"/>
-      <c r="E56" s="14"/>
+      <c r="A56" s="15" t="s">
+        <v>241</v>
+      </c>
+      <c r="B56" s="13">
+        <v>11</v>
+      </c>
+      <c r="C56" s="14" t="s">
+        <v>252</v>
+      </c>
+      <c r="D56" s="14" t="s">
+        <v>252</v>
+      </c>
+      <c r="E56" s="14" t="s">
+        <v>252</v>
+      </c>
     </row>
     <row r="57" spans="1:5">
-      <c r="A57" s="15"/>
-      <c r="B57" s="13"/>
-      <c r="C57" s="14"/>
-      <c r="D57" s="14"/>
-      <c r="E57" s="14"/>
+      <c r="A57" s="15" t="s">
+        <v>241</v>
+      </c>
+      <c r="B57" s="13">
+        <v>12</v>
+      </c>
+      <c r="C57" s="14" t="s">
+        <v>253</v>
+      </c>
+      <c r="D57" s="14" t="s">
+        <v>253</v>
+      </c>
+      <c r="E57" s="14" t="s">
+        <v>253</v>
+      </c>
     </row>
     <row r="58" spans="1:5">
-      <c r="A58" s="15"/>
-      <c r="B58" s="13"/>
-      <c r="C58" s="14"/>
-      <c r="D58" s="14"/>
-      <c r="E58" s="14"/>
+      <c r="A58" s="15" t="s">
+        <v>241</v>
+      </c>
+      <c r="B58" s="13">
+        <v>13</v>
+      </c>
+      <c r="C58" s="14" t="s">
+        <v>254</v>
+      </c>
+      <c r="D58" s="14" t="s">
+        <v>254</v>
+      </c>
+      <c r="E58" s="14" t="s">
+        <v>254</v>
+      </c>
     </row>
     <row r="59" spans="1:5">
-      <c r="A59" s="15"/>
-      <c r="B59" s="13"/>
-      <c r="C59" s="14"/>
-      <c r="D59" s="14"/>
-      <c r="E59" s="14"/>
+      <c r="A59" s="15" t="s">
+        <v>241</v>
+      </c>
+      <c r="B59" s="13">
+        <v>14</v>
+      </c>
+      <c r="C59" s="14" t="s">
+        <v>255</v>
+      </c>
+      <c r="D59" s="14" t="s">
+        <v>255</v>
+      </c>
+      <c r="E59" s="14" t="s">
+        <v>255</v>
+      </c>
     </row>
     <row r="60" spans="1:5">
-      <c r="A60" s="15"/>
-      <c r="B60" s="13"/>
-      <c r="C60" s="14"/>
-      <c r="D60" s="14"/>
-      <c r="E60" s="14"/>
+      <c r="A60" s="15" t="s">
+        <v>241</v>
+      </c>
+      <c r="B60" s="13">
+        <v>15</v>
+      </c>
+      <c r="C60" s="14" t="s">
+        <v>256</v>
+      </c>
+      <c r="D60" s="14" t="s">
+        <v>256</v>
+      </c>
+      <c r="E60" s="14" t="s">
+        <v>256</v>
+      </c>
     </row>
     <row r="61" spans="1:5">
-      <c r="A61" s="15"/>
-      <c r="B61" s="13"/>
-      <c r="C61" s="14"/>
-      <c r="D61" s="14"/>
-      <c r="E61" s="14"/>
+      <c r="A61" s="15" t="s">
+        <v>241</v>
+      </c>
+      <c r="B61" s="13">
+        <v>16</v>
+      </c>
+      <c r="C61" s="14" t="s">
+        <v>257</v>
+      </c>
+      <c r="D61" s="14" t="s">
+        <v>257</v>
+      </c>
+      <c r="E61" s="14" t="s">
+        <v>257</v>
+      </c>
     </row>
     <row r="62" spans="1:5">
-      <c r="A62" s="15"/>
-      <c r="B62" s="13"/>
-      <c r="C62" s="14"/>
-      <c r="D62" s="14"/>
-      <c r="E62" s="14"/>
+      <c r="A62" s="15" t="s">
+        <v>241</v>
+      </c>
+      <c r="B62" s="13">
+        <v>17</v>
+      </c>
+      <c r="C62" s="14" t="s">
+        <v>258</v>
+      </c>
+      <c r="D62" s="14" t="s">
+        <v>258</v>
+      </c>
+      <c r="E62" s="14" t="s">
+        <v>258</v>
+      </c>
     </row>
     <row r="63" spans="1:5">
-      <c r="A63" s="15"/>
-      <c r="B63" s="13"/>
-      <c r="C63" s="14"/>
-      <c r="D63" s="14"/>
-      <c r="E63" s="14"/>
+      <c r="A63" s="15" t="s">
+        <v>241</v>
+      </c>
+      <c r="B63" s="13">
+        <v>18</v>
+      </c>
+      <c r="C63" s="14" t="s">
+        <v>199</v>
+      </c>
+      <c r="D63" s="14" t="s">
+        <v>199</v>
+      </c>
+      <c r="E63" s="14" t="s">
+        <v>199</v>
+      </c>
     </row>
     <row r="64" spans="1:5">
-      <c r="A64" s="15"/>
-      <c r="B64" s="13"/>
-      <c r="C64" s="14"/>
-      <c r="D64" s="14"/>
-      <c r="E64" s="14"/>
+      <c r="A64" s="15" t="s">
+        <v>241</v>
+      </c>
+      <c r="B64" s="13">
+        <v>88</v>
+      </c>
+      <c r="C64" s="14" t="s">
+        <v>173</v>
+      </c>
+      <c r="D64" s="14" t="s">
+        <v>173</v>
+      </c>
+      <c r="E64" s="14" t="s">
+        <v>173</v>
+      </c>
     </row>
     <row r="65" spans="1:5">
       <c r="A65" s="15"/>
-      <c r="B65" s="13"/>
-      <c r="C65" s="14"/>
       <c r="D65" s="14"/>
       <c r="E65" s="14"/>
     </row>
@@ -3791,21 +4175,21 @@
         <v>117</v>
       </c>
       <c r="D1" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
     </row>
     <row r="2" spans="1:4">
       <c r="A2" s="1" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="B2" t="s">
         <v>118</v>
       </c>
       <c r="C2" t="s">
+        <v>143</v>
+      </c>
+      <c r="D2" t="s">
         <v>145</v>
-      </c>
-      <c r="D2" t="s">
-        <v>147</v>
       </c>
     </row>
   </sheetData>

--- a/xforms/xlsforms/in_migration.xlsx
+++ b/xforms/xlsforms/in_migration.xlsx
@@ -859,10 +859,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
-    <numFmt numFmtId="176" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
-    <numFmt numFmtId="177" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="176" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
+    <numFmt numFmtId="177" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="25">
     <font>
@@ -900,14 +900,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
@@ -915,18 +907,11 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color theme="0"/>
+      <color rgb="FFFFFFFF"/>
       <name val="Calibri"/>
       <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -947,6 +932,13 @@
     </font>
     <font>
       <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <charset val="0"/>
@@ -954,16 +946,29 @@
     </font>
     <font>
       <b/>
-      <sz val="18"/>
+      <sz val="15"/>
       <color theme="3"/>
       <name val="Calibri"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <i/>
       <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
+      <color rgb="FF006100"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -978,45 +983,8 @@
     </font>
     <font>
       <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
       <sz val="11"/>
       <color rgb="FF3F3F3F"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1036,7 +1004,14 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
       <name val="Calibri"/>
@@ -1044,6 +1019,31 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
       <name val="Calibri"/>
@@ -1108,7 +1108,121 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7"/>
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1120,55 +1234,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor rgb="FFFFFFCC"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
+        <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
+        <fgColor theme="4"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1180,31 +1258,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
+        <fgColor theme="4" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
+        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1216,67 +1276,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
+        <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1330,32 +1330,6 @@
     </border>
     <border>
       <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
         <color rgb="FF3F3F3F"/>
       </left>
       <right style="thin">
@@ -1387,151 +1361,177 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="7" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="38" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="19" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="17" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="16" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="19" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="42" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="38" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="16" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="31" borderId="7" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="12" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="16" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="42" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="9" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="9" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -2020,11 +2020,11 @@
   <dimension ref="A1:R93"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="3" ySplit="1" topLeftCell="M14" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="3" ySplit="1" topLeftCell="G2" activePane="bottomRight" state="frozen"/>
       <selection/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="M31" sqref="M31"/>
+      <selection pane="bottomRight" activeCell="B5" sqref="B5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.88" defaultRowHeight="12"/>
@@ -3026,8 +3026,8 @@
   <sheetPr/>
   <dimension ref="A1:E71"/>
   <sheetViews>
-    <sheetView zoomScale="120" zoomScaleNormal="120" topLeftCell="A49" workbookViewId="0">
-      <selection activeCell="E65" sqref="E65:E66"/>
+    <sheetView zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
+      <selection activeCell="A7" sqref="A7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.88" defaultRowHeight="12" outlineLevelCol="4"/>

--- a/xforms/xlsforms/in_migration.xlsx
+++ b/xforms/xlsforms/in_migration.xlsx
@@ -4,14 +4,14 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="28695" windowHeight="13125" tabRatio="500"/>
+    <workbookView windowWidth="20385" windowHeight="8430" tabRatio="500" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="survey" sheetId="1" r:id="rId1"/>
     <sheet name="choices" sheetId="2" r:id="rId2"/>
     <sheet name="settings" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="144525"/>
+  <calcPr calcId="144525" concurrentCalc="0"/>
 </workbook>
 </file>
 
@@ -54,7 +54,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="266">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="267">
   <si>
     <t>type</t>
   </si>
@@ -723,6 +723,9 @@
   </si>
   <si>
     <t>relation_with_head</t>
+  </si>
+  <si>
+    <t>O Proprio chefe</t>
   </si>
   <si>
     <t>Pai/Mãe</t>
@@ -859,9 +862,9 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="42" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
     <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
     <numFmt numFmtId="176" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
     <numFmt numFmtId="177" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="25">
@@ -900,26 +903,18 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <u/>
       <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
+      <color rgb="FF800080"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
       <sz val="11"/>
-      <color rgb="FF800080"/>
+      <color theme="1"/>
       <name val="Calibri"/>
-      <charset val="0"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -932,12 +927,72 @@
     </font>
     <font>
       <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color rgb="FFFF0000"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
@@ -954,31 +1009,9 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF006100"/>
+      <color rgb="FFFA7D00"/>
       <name val="Calibri"/>
       <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -997,39 +1030,9 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FFFFFFFF"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1102,7 +1105,133 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1114,85 +1243,31 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
+        <fgColor rgb="FFA5A5A5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
+        <fgColor theme="6" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
+        <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
+        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
+        <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1204,79 +1279,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
+        <fgColor theme="5" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1287,30 +1290,6 @@
       <right/>
       <top/>
       <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -1325,39 +1304,6 @@
       </top>
       <bottom style="thin">
         <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1387,151 +1333,208 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="14" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="38" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="16" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="31" borderId="7" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="12" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="38" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="25" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="15" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="9" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="25" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="16" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="42" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="42" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="9" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="32" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1543,10 +1546,10 @@
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -2019,8 +2022,8 @@
   <sheetPr/>
   <dimension ref="A1:R93"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="3" ySplit="1" topLeftCell="G2" activePane="bottomRight" state="frozen"/>
+    <sheetView workbookViewId="0">
+      <pane xSplit="3" ySplit="1" topLeftCell="G14" activePane="bottomRight" state="frozen"/>
       <selection/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
@@ -2163,20 +2166,20 @@
       <c r="O4" s="6"/>
       <c r="P4" s="6"/>
     </row>
-    <row r="5" s="4" customFormat="1" ht="15" customHeight="1" spans="1:16">
+    <row r="5" s="3" customFormat="1" ht="15" customHeight="1" spans="1:16">
       <c r="A5" s="22" t="s">
         <v>21</v>
       </c>
-      <c r="B5" s="4" t="s">
+      <c r="B5" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="C5" s="4" t="s">
+      <c r="C5" s="3" t="s">
         <v>23</v>
       </c>
-      <c r="D5" s="4" t="s">
+      <c r="D5" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="E5" s="4" t="s">
+      <c r="E5" s="3" t="s">
         <v>24</v>
       </c>
       <c r="F5" s="22"/>
@@ -2195,20 +2198,20 @@
       <c r="O5" s="22"/>
       <c r="P5" s="22"/>
     </row>
-    <row r="6" s="4" customFormat="1" ht="15" customHeight="1" spans="1:16">
+    <row r="6" s="3" customFormat="1" ht="15" customHeight="1" spans="1:16">
       <c r="A6" s="22" t="s">
         <v>25</v>
       </c>
-      <c r="B6" s="4" t="s">
+      <c r="B6" s="3" t="s">
         <v>26</v>
       </c>
-      <c r="C6" s="4" t="s">
+      <c r="C6" s="3" t="s">
         <v>27</v>
       </c>
-      <c r="D6" s="4" t="s">
+      <c r="D6" s="3" t="s">
         <v>27</v>
       </c>
-      <c r="E6" s="4" t="s">
+      <c r="E6" s="3" t="s">
         <v>27</v>
       </c>
       <c r="F6" s="22"/>
@@ -2657,7 +2660,7 @@
       <c r="B26" s="20" t="s">
         <v>108</v>
       </c>
-      <c r="C26" s="4" t="s">
+      <c r="C26" s="3" t="s">
         <v>109</v>
       </c>
       <c r="D26" s="37" t="s">
@@ -2669,7 +2672,7 @@
       <c r="J26" s="31" t="b">
         <v>1</v>
       </c>
-      <c r="M26" s="4" t="s">
+      <c r="M26" s="3" t="s">
         <v>110</v>
       </c>
     </row>
@@ -2751,7 +2754,7 @@
       <c r="B30" s="19" t="s">
         <v>124</v>
       </c>
-      <c r="C30" s="4" t="s">
+      <c r="C30" s="3" t="s">
         <v>125</v>
       </c>
       <c r="D30" s="19" t="s">
@@ -2763,7 +2766,7 @@
       <c r="J30" s="30" t="b">
         <v>1</v>
       </c>
-      <c r="M30" s="4" t="s">
+      <c r="M30" s="3" t="s">
         <v>127</v>
       </c>
     </row>
@@ -2800,7 +2803,7 @@
       <c r="B32" s="19" t="s">
         <v>132</v>
       </c>
-      <c r="C32" s="4" t="s">
+      <c r="C32" s="3" t="s">
         <v>133</v>
       </c>
       <c r="D32" s="19" t="s">
@@ -2839,26 +2842,26 @@
         <v>137</v>
       </c>
     </row>
-    <row r="34" s="4" customFormat="1" spans="1:13">
-      <c r="A34" s="4" t="s">
+    <row r="34" s="3" customFormat="1" spans="1:13">
+      <c r="A34" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="B34" s="4" t="s">
+      <c r="B34" s="3" t="s">
         <v>138</v>
       </c>
-      <c r="C34" s="4" t="s">
+      <c r="C34" s="3" t="s">
         <v>139</v>
       </c>
-      <c r="D34" s="4" t="s">
+      <c r="D34" s="3" t="s">
         <v>140</v>
       </c>
-      <c r="E34" s="4" t="s">
+      <c r="E34" s="3" t="s">
         <v>140</v>
       </c>
       <c r="J34" s="22" t="b">
         <v>1</v>
       </c>
-      <c r="M34" s="4" t="s">
+      <c r="M34" s="3" t="s">
         <v>127</v>
       </c>
     </row>
@@ -3024,10 +3027,10 @@
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr/>
-  <dimension ref="A1:E71"/>
+  <dimension ref="A1:E72"/>
   <sheetViews>
-    <sheetView zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
-      <selection activeCell="A7" sqref="A7"/>
+    <sheetView tabSelected="1" zoomScale="120" zoomScaleNormal="120" topLeftCell="A25" workbookViewId="0">
+      <selection activeCell="A31" sqref="$A31:$XFD31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.88" defaultRowHeight="12" outlineLevelCol="4"/>
@@ -3548,20 +3551,20 @@
         <v>221</v>
       </c>
     </row>
-    <row r="31" spans="1:5">
-      <c r="A31" s="8" t="s">
+    <row r="31" s="3" customFormat="1" spans="1:5">
+      <c r="A31" s="16" t="s">
         <v>222</v>
       </c>
-      <c r="B31" s="9">
-        <v>1</v>
-      </c>
-      <c r="C31" s="10" t="s">
+      <c r="B31" s="11">
+        <v>0</v>
+      </c>
+      <c r="C31" s="12" t="s">
         <v>223</v>
       </c>
-      <c r="D31" s="10" t="s">
+      <c r="D31" s="12" t="s">
         <v>223</v>
       </c>
-      <c r="E31" s="10" t="s">
+      <c r="E31" s="12" t="s">
         <v>223</v>
       </c>
     </row>
@@ -3570,7 +3573,7 @@
         <v>222</v>
       </c>
       <c r="B32" s="9">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C32" s="10" t="s">
         <v>224</v>
@@ -3587,7 +3590,7 @@
         <v>222</v>
       </c>
       <c r="B33" s="9">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C33" s="10" t="s">
         <v>225</v>
@@ -3604,7 +3607,7 @@
         <v>222</v>
       </c>
       <c r="B34" s="9">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C34" s="10" t="s">
         <v>226</v>
@@ -3621,7 +3624,7 @@
         <v>222</v>
       </c>
       <c r="B35" s="9">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C35" s="10" t="s">
         <v>227</v>
@@ -3638,7 +3641,7 @@
         <v>222</v>
       </c>
       <c r="B36" s="9">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C36" s="10" t="s">
         <v>228</v>
@@ -3655,7 +3658,7 @@
         <v>222</v>
       </c>
       <c r="B37" s="9">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C37" s="10" t="s">
         <v>229</v>
@@ -3672,7 +3675,7 @@
         <v>222</v>
       </c>
       <c r="B38" s="9">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C38" s="10" t="s">
         <v>230</v>
@@ -3689,7 +3692,7 @@
         <v>222</v>
       </c>
       <c r="B39" s="9">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C39" s="10" t="s">
         <v>231</v>
@@ -3706,7 +3709,7 @@
         <v>222</v>
       </c>
       <c r="B40" s="9">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C40" s="10" t="s">
         <v>232</v>
@@ -3723,7 +3726,7 @@
         <v>222</v>
       </c>
       <c r="B41" s="9">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C41" s="10" t="s">
         <v>233</v>
@@ -3740,7 +3743,7 @@
         <v>222</v>
       </c>
       <c r="B42" s="9">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C42" s="10" t="s">
         <v>234</v>
@@ -3757,7 +3760,7 @@
         <v>222</v>
       </c>
       <c r="B43" s="9">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C43" s="10" t="s">
         <v>235</v>
@@ -3773,59 +3776,59 @@
       <c r="A44" s="8" t="s">
         <v>222</v>
       </c>
-      <c r="B44" s="11">
-        <v>98</v>
+      <c r="B44" s="9">
+        <v>13</v>
       </c>
       <c r="C44" s="10" t="s">
-        <v>187</v>
+        <v>236</v>
       </c>
       <c r="D44" s="10" t="s">
-        <v>187</v>
+        <v>236</v>
       </c>
       <c r="E44" s="10" t="s">
-        <v>187</v>
+        <v>236</v>
       </c>
     </row>
     <row r="45" spans="1:5">
       <c r="A45" s="8" t="s">
         <v>222</v>
       </c>
-      <c r="B45" s="9">
+      <c r="B45" s="11">
+        <v>98</v>
+      </c>
+      <c r="C45" s="10" t="s">
+        <v>187</v>
+      </c>
+      <c r="D45" s="10" t="s">
+        <v>187</v>
+      </c>
+      <c r="E45" s="10" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="46" spans="1:5">
+      <c r="A46" s="8" t="s">
+        <v>222</v>
+      </c>
+      <c r="B46" s="9">
         <v>88</v>
       </c>
-      <c r="C45" s="10" t="s">
+      <c r="C46" s="10" t="s">
         <v>188</v>
       </c>
-      <c r="D45" s="10" t="s">
+      <c r="D46" s="10" t="s">
         <v>188</v>
       </c>
-      <c r="E45" s="10" t="s">
+      <c r="E46" s="10" t="s">
         <v>188</v>
       </c>
     </row>
-    <row r="46" s="3" customFormat="1" spans="1:5">
-      <c r="A46" s="3" t="s">
-        <v>236</v>
-      </c>
-      <c r="B46" s="9">
-        <v>1</v>
-      </c>
-      <c r="C46" s="10" t="s">
+    <row r="47" s="4" customFormat="1" spans="1:5">
+      <c r="A47" s="4" t="s">
         <v>237</v>
       </c>
-      <c r="D46" s="10" t="s">
-        <v>237</v>
-      </c>
-      <c r="E46" s="10" t="s">
-        <v>237</v>
-      </c>
-    </row>
-    <row r="47" spans="1:5">
-      <c r="A47" s="3" t="s">
-        <v>236</v>
-      </c>
       <c r="B47" s="9">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C47" s="10" t="s">
         <v>238</v>
@@ -3838,11 +3841,11 @@
       </c>
     </row>
     <row r="48" spans="1:5">
-      <c r="A48" s="3" t="s">
-        <v>236</v>
+      <c r="A48" s="4" t="s">
+        <v>237</v>
       </c>
       <c r="B48" s="9">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C48" s="10" t="s">
         <v>239</v>
@@ -3855,31 +3858,31 @@
       </c>
     </row>
     <row r="49" spans="1:5">
-      <c r="A49" s="3" t="s">
-        <v>236</v>
+      <c r="A49" s="4" t="s">
+        <v>237</v>
       </c>
       <c r="B49" s="9">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C49" s="10" t="s">
         <v>240</v>
       </c>
       <c r="D49" s="10" t="s">
+        <v>240</v>
+      </c>
+      <c r="E49" s="10" t="s">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="50" spans="1:5">
+      <c r="A50" s="4" t="s">
+        <v>237</v>
+      </c>
+      <c r="B50" s="9">
+        <v>4</v>
+      </c>
+      <c r="C50" s="10" t="s">
         <v>241</v>
-      </c>
-      <c r="E49" s="10" t="s">
-        <v>241</v>
-      </c>
-    </row>
-    <row r="50" spans="1:5">
-      <c r="A50" s="3" t="s">
-        <v>236</v>
-      </c>
-      <c r="B50" s="9">
-        <v>5</v>
-      </c>
-      <c r="C50" s="10" t="s">
-        <v>242</v>
       </c>
       <c r="D50" s="10" t="s">
         <v>242</v>
@@ -3889,11 +3892,11 @@
       </c>
     </row>
     <row r="51" spans="1:5">
-      <c r="A51" s="3" t="s">
-        <v>236</v>
+      <c r="A51" s="4" t="s">
+        <v>237</v>
       </c>
       <c r="B51" s="9">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C51" s="10" t="s">
         <v>243</v>
@@ -3906,11 +3909,11 @@
       </c>
     </row>
     <row r="52" spans="1:5">
-      <c r="A52" s="3" t="s">
-        <v>236</v>
+      <c r="A52" s="4" t="s">
+        <v>237</v>
       </c>
       <c r="B52" s="9">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C52" s="10" t="s">
         <v>244</v>
@@ -3923,11 +3926,11 @@
       </c>
     </row>
     <row r="53" spans="1:5">
-      <c r="A53" s="3" t="s">
-        <v>236</v>
+      <c r="A53" s="4" t="s">
+        <v>237</v>
       </c>
       <c r="B53" s="9">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C53" s="10" t="s">
         <v>245</v>
@@ -3940,11 +3943,11 @@
       </c>
     </row>
     <row r="54" spans="1:5">
-      <c r="A54" s="3" t="s">
-        <v>236</v>
+      <c r="A54" s="4" t="s">
+        <v>237</v>
       </c>
       <c r="B54" s="9">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C54" s="10" t="s">
         <v>246</v>
@@ -3957,11 +3960,11 @@
       </c>
     </row>
     <row r="55" spans="1:5">
-      <c r="A55" s="3" t="s">
-        <v>236</v>
+      <c r="A55" s="4" t="s">
+        <v>237</v>
       </c>
       <c r="B55" s="9">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C55" s="10" t="s">
         <v>247</v>
@@ -3974,11 +3977,11 @@
       </c>
     </row>
     <row r="56" spans="1:5">
-      <c r="A56" s="3" t="s">
-        <v>236</v>
+      <c r="A56" s="4" t="s">
+        <v>237</v>
       </c>
       <c r="B56" s="9">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C56" s="10" t="s">
         <v>248</v>
@@ -3991,11 +3994,11 @@
       </c>
     </row>
     <row r="57" spans="1:5">
-      <c r="A57" s="3" t="s">
-        <v>236</v>
+      <c r="A57" s="4" t="s">
+        <v>237</v>
       </c>
       <c r="B57" s="9">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C57" s="10" t="s">
         <v>249</v>
@@ -4008,11 +4011,11 @@
       </c>
     </row>
     <row r="58" spans="1:5">
-      <c r="A58" s="3" t="s">
-        <v>236</v>
+      <c r="A58" s="4" t="s">
+        <v>237</v>
       </c>
       <c r="B58" s="9">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C58" s="10" t="s">
         <v>250</v>
@@ -4025,11 +4028,11 @@
       </c>
     </row>
     <row r="59" spans="1:5">
-      <c r="A59" s="3" t="s">
-        <v>236</v>
+      <c r="A59" s="4" t="s">
+        <v>237</v>
       </c>
       <c r="B59" s="9">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C59" s="10" t="s">
         <v>251</v>
@@ -4042,11 +4045,11 @@
       </c>
     </row>
     <row r="60" spans="1:5">
-      <c r="A60" s="3" t="s">
-        <v>236</v>
+      <c r="A60" s="4" t="s">
+        <v>237</v>
       </c>
       <c r="B60" s="9">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C60" s="10" t="s">
         <v>252</v>
@@ -4059,11 +4062,11 @@
       </c>
     </row>
     <row r="61" spans="1:5">
-      <c r="A61" s="3" t="s">
-        <v>236</v>
+      <c r="A61" s="4" t="s">
+        <v>237</v>
       </c>
       <c r="B61" s="9">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C61" s="10" t="s">
         <v>253</v>
@@ -4076,11 +4079,11 @@
       </c>
     </row>
     <row r="62" spans="1:5">
-      <c r="A62" s="3" t="s">
-        <v>236</v>
+      <c r="A62" s="4" t="s">
+        <v>237</v>
       </c>
       <c r="B62" s="9">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C62" s="10" t="s">
         <v>254</v>
@@ -4093,107 +4096,124 @@
       </c>
     </row>
     <row r="63" spans="1:5">
-      <c r="A63" s="3" t="s">
-        <v>236</v>
-      </c>
-      <c r="B63" s="11">
+      <c r="A63" s="4" t="s">
+        <v>237</v>
+      </c>
+      <c r="B63" s="9">
+        <v>17</v>
+      </c>
+      <c r="C63" s="10" t="s">
+        <v>255</v>
+      </c>
+      <c r="D63" s="10" t="s">
+        <v>255</v>
+      </c>
+      <c r="E63" s="10" t="s">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="64" spans="1:5">
+      <c r="A64" s="4" t="s">
+        <v>237</v>
+      </c>
+      <c r="B64" s="11">
         <v>98</v>
       </c>
-      <c r="C63" s="10" t="s">
+      <c r="C64" s="10" t="s">
         <v>187</v>
       </c>
-      <c r="D63" s="10" t="s">
+      <c r="D64" s="10" t="s">
         <v>187</v>
       </c>
-      <c r="E63" s="10" t="s">
+      <c r="E64" s="10" t="s">
         <v>187</v>
       </c>
     </row>
-    <row r="64" spans="1:5">
-      <c r="A64" s="3" t="s">
-        <v>236</v>
-      </c>
-      <c r="B64" s="9">
+    <row r="65" spans="1:5">
+      <c r="A65" s="4" t="s">
+        <v>237</v>
+      </c>
+      <c r="B65" s="9">
         <v>88</v>
       </c>
-      <c r="C64" s="10" t="s">
+      <c r="C65" s="10" t="s">
         <v>188</v>
       </c>
-      <c r="D64" s="10" t="s">
+      <c r="D65" s="10" t="s">
         <v>188</v>
       </c>
-      <c r="E64" s="10" t="s">
+      <c r="E65" s="10" t="s">
         <v>188</v>
       </c>
     </row>
-    <row r="65" s="4" customFormat="1" spans="1:5">
-      <c r="A65" s="16" t="s">
-        <v>255</v>
-      </c>
-      <c r="B65" s="17">
-        <v>1</v>
-      </c>
-      <c r="C65" s="4" t="s">
+    <row r="66" s="3" customFormat="1" spans="1:5">
+      <c r="A66" s="16" t="s">
         <v>256</v>
       </c>
-      <c r="D65" s="4" t="s">
+      <c r="B66" s="17">
+        <v>1</v>
+      </c>
+      <c r="C66" s="3" t="s">
+        <v>257</v>
+      </c>
+      <c r="D66" s="3" t="s">
+        <v>257</v>
+      </c>
+      <c r="E66" s="3" t="s">
+        <v>257</v>
+      </c>
+    </row>
+    <row r="67" s="3" customFormat="1" spans="1:5">
+      <c r="A67" s="16" t="s">
         <v>256</v>
       </c>
-      <c r="E65" s="4" t="s">
-        <v>256</v>
-      </c>
-    </row>
-    <row r="66" s="4" customFormat="1" spans="1:5">
-      <c r="A66" s="16" t="s">
-        <v>255</v>
-      </c>
-      <c r="B66" s="11">
+      <c r="B67" s="11">
         <v>2</v>
       </c>
-      <c r="C66" s="12" t="s">
-        <v>257</v>
-      </c>
-      <c r="D66" s="12" t="s">
-        <v>257</v>
-      </c>
-      <c r="E66" s="12" t="s">
-        <v>257</v>
-      </c>
-    </row>
-    <row r="67" spans="1:5">
-      <c r="A67" s="3"/>
-      <c r="B67" s="9"/>
-      <c r="C67" s="10"/>
-      <c r="D67" s="10"/>
-      <c r="E67" s="10"/>
+      <c r="C67" s="12" t="s">
+        <v>258</v>
+      </c>
+      <c r="D67" s="12" t="s">
+        <v>258</v>
+      </c>
+      <c r="E67" s="12" t="s">
+        <v>258</v>
+      </c>
     </row>
     <row r="68" spans="1:5">
-      <c r="A68" s="3"/>
+      <c r="A68" s="4"/>
       <c r="B68" s="9"/>
       <c r="C68" s="10"/>
       <c r="D68" s="10"/>
       <c r="E68" s="10"/>
     </row>
     <row r="69" spans="1:5">
-      <c r="A69" s="3"/>
+      <c r="A69" s="4"/>
       <c r="B69" s="9"/>
       <c r="C69" s="10"/>
       <c r="D69" s="10"/>
       <c r="E69" s="10"/>
     </row>
     <row r="70" spans="1:5">
-      <c r="A70" s="3"/>
+      <c r="A70" s="4"/>
       <c r="B70" s="9"/>
       <c r="C70" s="10"/>
       <c r="D70" s="10"/>
       <c r="E70" s="10"/>
     </row>
     <row r="71" spans="1:5">
-      <c r="A71" s="3"/>
+      <c r="A71" s="4"/>
       <c r="B71" s="9"/>
       <c r="C71" s="10"/>
       <c r="D71" s="10"/>
       <c r="E71" s="10"/>
+    </row>
+    <row r="72" spans="1:5">
+      <c r="A72" s="4"/>
+      <c r="B72" s="9"/>
+      <c r="C72" s="10"/>
+      <c r="D72" s="10"/>
+      <c r="E72" s="10"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -4221,30 +4241,30 @@
   <sheetData>
     <row r="1" spans="1:4">
       <c r="A1" s="1" t="s">
-        <v>258</v>
+        <v>259</v>
       </c>
       <c r="B1" t="s">
-        <v>259</v>
+        <v>260</v>
       </c>
       <c r="C1" t="s">
-        <v>260</v>
+        <v>261</v>
       </c>
       <c r="D1" t="s">
-        <v>261</v>
+        <v>262</v>
       </c>
     </row>
     <row r="2" spans="1:4">
       <c r="A2" s="1" t="s">
-        <v>262</v>
+        <v>263</v>
       </c>
       <c r="B2" t="s">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c r="C2" t="s">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="D2" t="s">
-        <v>265</v>
+        <v>266</v>
       </c>
     </row>
   </sheetData>
